--- a/sound/Notes.xlsx
+++ b/sound/Notes.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20115" windowHeight="7425" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20115" windowHeight="7425"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="4096 freq" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Volume step" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -1634,11 +1634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138604928"/>
-        <c:axId val="138606464"/>
+        <c:axId val="189870080"/>
+        <c:axId val="189871616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138604928"/>
+        <c:axId val="189870080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,12 +1647,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138606464"/>
+        <c:crossAx val="189871616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138606464"/>
+        <c:axId val="189871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138604928"/>
+        <c:crossAx val="189870080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4599,11 +4599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140130176"/>
-        <c:axId val="140131712"/>
+        <c:axId val="189912960"/>
+        <c:axId val="189914496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140130176"/>
+        <c:axId val="189912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,13 +4613,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140131712"/>
+        <c:crossAx val="189914496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140131712"/>
+        <c:axId val="189914496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140130176"/>
+        <c:crossAx val="189912960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5010,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5831,12 +5831,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f ca="1">A1*(44100/4096)</f>
+        <v>10.7666015625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B65" ca="1" si="0">A2*(44100/4096)</f>
+        <v>21.533203125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.2998046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.06640625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.8330078125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>64.599609375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>75.3662109375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86.1328125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>96.8994140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>107.666015625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>118.4326171875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>129.19921875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>139.9658203125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>150.732421875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>161.4990234375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>172.265625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>183.0322265625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>193.798828125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>204.5654296875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>215.33203125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>226.0986328125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>236.865234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>247.6318359375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>258.3984375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>269.1650390625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>279.931640625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>290.6982421875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>301.46484375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>312.2314453125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>322.998046875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>333.7646484375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>344.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>355.2978515625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>366.064453125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>376.8310546875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>387.59765625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>398.3642578125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>409.130859375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>419.8974609375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>430.6640625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>441.4306640625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>452.197265625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>462.9638671875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>473.73046875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>484.4970703125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>495.263671875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>506.0302734375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>516.796875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>527.5634765625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>538.330078125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>549.0966796875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>559.86328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>570.6298828125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>581.396484375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>592.1630859375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>602.9296875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>613.6962890625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>624.462890625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>635.2294921875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>645.99609375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>656.7626953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>667.529296875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>678.2958984375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>689.0625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>699.8291015625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" ref="B66:B72" ca="1" si="1">A66*(44100/4096)</f>
+        <v>710.595703125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>721.3623046875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>732.12890625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>742.8955078125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>753.662109375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>764.4287109375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>775.1953125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5857,7 +6511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+    <sheetView topLeftCell="A438" workbookViewId="0">
       <selection activeCell="H477" sqref="H477"/>
     </sheetView>
   </sheetViews>
@@ -5869,7 +6523,7 @@
         <v>2.3219954648526078E-2</v>
       </c>
       <c r="B1">
-        <f ca="1">IF(ISNUMBER(C1),C1,0)</f>
+        <f t="shared" ref="B1:B64" ca="1" si="0">IF(ISNUMBER(C1),C1,0)</f>
         <v>-3</v>
       </c>
       <c r="C1">
@@ -5878,11 +6532,11 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f ca="1">IF(ISNUMBER(C2),A1+1024/44100,A1+0.000001)</f>
+        <f t="shared" ref="A2:A65" ca="1" si="1">IF(ISNUMBER(C2),A1+1024/44100,A1+0.000001)</f>
         <v>4.6439909297052155E-2</v>
       </c>
       <c r="B2">
-        <f ca="1">IF(ISNUMBER(C2),C2,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
       <c r="C2">
@@ -5891,11 +6545,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f ca="1">IF(ISNUMBER(C3),A2+1024/44100,A2+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4.6440909297052156E-2</v>
       </c>
       <c r="B3">
-        <f ca="1">IF(ISNUMBER(C3),C3,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -5904,11 +6558,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f ca="1">IF(ISNUMBER(C4),A3+1024/44100,A3+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6.966086394557823E-2</v>
       </c>
       <c r="B4">
-        <f ca="1">IF(ISNUMBER(C4),C4,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="C4">
@@ -5917,11 +6571,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f ca="1">IF(ISNUMBER(C5),A4+1024/44100,A4+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9.2880818594104311E-2</v>
       </c>
       <c r="B5">
-        <f ca="1">IF(ISNUMBER(C5),C5,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C5">
@@ -5930,11 +6584,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f ca="1">IF(ISNUMBER(C6),A5+1024/44100,A5+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11610077324263039</v>
       </c>
       <c r="B6">
-        <f ca="1">IF(ISNUMBER(C6),C6,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C6">
@@ -5943,11 +6597,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f ca="1">IF(ISNUMBER(C7),A6+1024/44100,A6+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.13932072789115646</v>
       </c>
       <c r="B7">
-        <f ca="1">IF(ISNUMBER(C7),C7,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="C7">
@@ -5956,11 +6610,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f ca="1">IF(ISNUMBER(C8),A7+1024/44100,A7+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.16254068253968254</v>
       </c>
       <c r="B8">
-        <f ca="1">IF(ISNUMBER(C8),C8,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C8">
@@ -5969,11 +6623,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f ca="1">IF(ISNUMBER(C9),A8+1024/44100,A8+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.18576063718820862</v>
       </c>
       <c r="B9">
-        <f ca="1">IF(ISNUMBER(C9),C9,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C9">
@@ -5982,11 +6636,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f ca="1">IF(ISNUMBER(C10),A9+1024/44100,A9+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.2089805918367347</v>
       </c>
       <c r="B10">
-        <f ca="1">IF(ISNUMBER(C10),C10,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="C10">
@@ -5995,11 +6649,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f ca="1">IF(ISNUMBER(C11),A10+1024/44100,A10+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.23220054648526078</v>
       </c>
       <c r="B11">
-        <f ca="1">IF(ISNUMBER(C11),C11,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="C11">
@@ -6008,11 +6662,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f ca="1">IF(ISNUMBER(C12),A11+1024/44100,A11+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.25542050113378684</v>
       </c>
       <c r="B12">
-        <f ca="1">IF(ISNUMBER(C12),C12,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="C12">
@@ -6021,11 +6675,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f ca="1">IF(ISNUMBER(C13),A12+1024/44100,A12+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.27864045578231289</v>
       </c>
       <c r="B13">
-        <f ca="1">IF(ISNUMBER(C13),C13,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C13">
@@ -6034,11 +6688,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f ca="1">IF(ISNUMBER(C14),A13+1024/44100,A13+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.30186041043083894</v>
       </c>
       <c r="B14">
-        <f ca="1">IF(ISNUMBER(C14),C14,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C14">
@@ -6047,11 +6701,11 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f ca="1">IF(ISNUMBER(C15),A14+1024/44100,A14+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.325080365079365</v>
       </c>
       <c r="B15">
-        <f ca="1">IF(ISNUMBER(C15),C15,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C15">
@@ -6060,11 +6714,11 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f ca="1">IF(ISNUMBER(C16),A15+1024/44100,A15+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.34830031972789105</v>
       </c>
       <c r="B16">
-        <f ca="1">IF(ISNUMBER(C16),C16,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C16">
@@ -6073,11 +6727,11 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f ca="1">IF(ISNUMBER(C17),A16+1024/44100,A16+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3715202743764171</v>
       </c>
       <c r="B17">
-        <f ca="1">IF(ISNUMBER(C17),C17,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C17">
@@ -6086,11 +6740,11 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f ca="1">IF(ISNUMBER(C18),A17+1024/44100,A17+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.39474022902494316</v>
       </c>
       <c r="B18">
-        <f ca="1">IF(ISNUMBER(C18),C18,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C18">
@@ -6099,11 +6753,11 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f ca="1">IF(ISNUMBER(C19),A18+1024/44100,A18+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.41796018367346921</v>
       </c>
       <c r="B19">
-        <f ca="1">IF(ISNUMBER(C19),C19,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="C19">
@@ -6112,11 +6766,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f ca="1">IF(ISNUMBER(C20),A19+1024/44100,A19+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.41796118367346918</v>
       </c>
       <c r="B20">
-        <f ca="1">IF(ISNUMBER(C20),C20,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" t="s">
@@ -6125,11 +6779,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f ca="1">IF(ISNUMBER(C21),A20+1024/44100,A20+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.44118113832199524</v>
       </c>
       <c r="B21">
-        <f ca="1">IF(ISNUMBER(C21),C21,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C21">
@@ -6138,11 +6792,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f ca="1">IF(ISNUMBER(C22),A21+1024/44100,A21+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.46440109297052129</v>
       </c>
       <c r="B22">
-        <f ca="1">IF(ISNUMBER(C22),C22,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="C22">
@@ -6151,11 +6805,11 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f ca="1">IF(ISNUMBER(C23),A22+1024/44100,A22+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.48762104761904734</v>
       </c>
       <c r="B23">
-        <f ca="1">IF(ISNUMBER(C23),C23,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C23">
@@ -6164,11 +6818,11 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f ca="1">IF(ISNUMBER(C24),A23+1024/44100,A23+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.51084100226757345</v>
       </c>
       <c r="B24">
-        <f ca="1">IF(ISNUMBER(C24),C24,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="C24">
@@ -6177,11 +6831,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f ca="1">IF(ISNUMBER(C25),A24+1024/44100,A24+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.53406095691609956</v>
       </c>
       <c r="B25">
-        <f ca="1">IF(ISNUMBER(C25),C25,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="C25">
@@ -6190,11 +6844,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f ca="1">IF(ISNUMBER(C26),A25+1024/44100,A25+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.55728091156462567</v>
       </c>
       <c r="B26">
-        <f ca="1">IF(ISNUMBER(C26),C26,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="C26">
@@ -6203,11 +6857,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f ca="1">IF(ISNUMBER(C27),A26+1024/44100,A26+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.58050086621315178</v>
       </c>
       <c r="B27">
-        <f ca="1">IF(ISNUMBER(C27),C27,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C27">
@@ -6216,11 +6870,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f ca="1">IF(ISNUMBER(C28),A27+1024/44100,A27+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.60372082086167789</v>
       </c>
       <c r="B28">
-        <f ca="1">IF(ISNUMBER(C28),C28,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
       <c r="C28">
@@ -6229,11 +6883,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f ca="1">IF(ISNUMBER(C29),A28+1024/44100,A28+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.60372182086167792</v>
       </c>
       <c r="B29">
-        <f ca="1">IF(ISNUMBER(C29),C29,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -6242,11 +6896,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f ca="1">IF(ISNUMBER(C30),A29+1024/44100,A29+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.62694177551020402</v>
       </c>
       <c r="B30">
-        <f ca="1">IF(ISNUMBER(C30),C30,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="C30">
@@ -6255,11 +6909,11 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f ca="1">IF(ISNUMBER(C31),A30+1024/44100,A30+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.62694277551020405</v>
       </c>
       <c r="B31">
-        <f ca="1">IF(ISNUMBER(C31),C31,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C31" t="s">
@@ -6268,11 +6922,11 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f ca="1">IF(ISNUMBER(C32),A31+1024/44100,A31+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.65016273015873016</v>
       </c>
       <c r="B32">
-        <f ca="1">IF(ISNUMBER(C32),C32,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="C32">
@@ -6281,11 +6935,11 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f ca="1">IF(ISNUMBER(C33),A32+1024/44100,A32+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.67338268480725627</v>
       </c>
       <c r="B33">
-        <f ca="1">IF(ISNUMBER(C33),C33,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
       <c r="C33">
@@ -6294,11 +6948,11 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f ca="1">IF(ISNUMBER(C34),A33+1024/44100,A33+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.69660263945578238</v>
       </c>
       <c r="B34">
-        <f ca="1">IF(ISNUMBER(C34),C34,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="C34">
@@ -6307,11 +6961,11 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f ca="1">IF(ISNUMBER(C35),A34+1024/44100,A34+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.71982259410430849</v>
       </c>
       <c r="B35">
-        <f ca="1">IF(ISNUMBER(C35),C35,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="C35">
@@ -6320,11 +6974,11 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f ca="1">IF(ISNUMBER(C36),A35+1024/44100,A35+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.7430425487528346</v>
       </c>
       <c r="B36">
-        <f ca="1">IF(ISNUMBER(C36),C36,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="C36">
@@ -6333,11 +6987,11 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f ca="1">IF(ISNUMBER(C37),A36+1024/44100,A36+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.76626250340136071</v>
       </c>
       <c r="B37">
-        <f ca="1">IF(ISNUMBER(C37),C37,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C37">
@@ -6346,11 +7000,11 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f ca="1">IF(ISNUMBER(C38),A37+1024/44100,A37+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.78948245804988681</v>
       </c>
       <c r="B38">
-        <f ca="1">IF(ISNUMBER(C38),C38,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C38">
@@ -6359,11 +7013,11 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f ca="1">IF(ISNUMBER(C39),A38+1024/44100,A38+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.81270241269841292</v>
       </c>
       <c r="B39">
-        <f ca="1">IF(ISNUMBER(C39),C39,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C39">
@@ -6372,11 +7026,11 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f ca="1">IF(ISNUMBER(C40),A39+1024/44100,A39+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.83592236734693903</v>
       </c>
       <c r="B40">
-        <f ca="1">IF(ISNUMBER(C40),C40,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="C40">
@@ -6385,11 +7039,11 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f ca="1">IF(ISNUMBER(C41),A40+1024/44100,A40+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.85914232199546514</v>
       </c>
       <c r="B41">
-        <f ca="1">IF(ISNUMBER(C41),C41,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="C41">
@@ -6398,11 +7052,11 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f ca="1">IF(ISNUMBER(C42),A41+1024/44100,A41+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.88236227664399125</v>
       </c>
       <c r="B42">
-        <f ca="1">IF(ISNUMBER(C42),C42,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="C42">
@@ -6411,11 +7065,11 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f ca="1">IF(ISNUMBER(C43),A42+1024/44100,A42+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.90558223129251736</v>
       </c>
       <c r="B43">
-        <f ca="1">IF(ISNUMBER(C43),C43,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C43">
@@ -6424,11 +7078,11 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f ca="1">IF(ISNUMBER(C44),A43+1024/44100,A43+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.92880218594104347</v>
       </c>
       <c r="B44">
-        <f ca="1">IF(ISNUMBER(C44),C44,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C44">
@@ -6437,11 +7091,11 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f ca="1">IF(ISNUMBER(C45),A44+1024/44100,A44+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.95202214058956958</v>
       </c>
       <c r="B45">
-        <f ca="1">IF(ISNUMBER(C45),C45,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="C45">
@@ -6450,11 +7104,11 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f ca="1">IF(ISNUMBER(C46),A45+1024/44100,A45+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.97524209523809569</v>
       </c>
       <c r="B46">
-        <f ca="1">IF(ISNUMBER(C46),C46,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C46">
@@ -6463,11 +7117,11 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f ca="1">IF(ISNUMBER(C47),A46+1024/44100,A46+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.99846204988662179</v>
       </c>
       <c r="B47">
-        <f ca="1">IF(ISNUMBER(C47),C47,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="C47">
@@ -6476,11 +7130,11 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f ca="1">IF(ISNUMBER(C48),A47+1024/44100,A47+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.0216820045351478</v>
       </c>
       <c r="B48">
-        <f ca="1">IF(ISNUMBER(C48),C48,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="C48">
@@ -6489,11 +7143,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f ca="1">IF(ISNUMBER(C49),A48+1024/44100,A48+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.0449019591836739</v>
       </c>
       <c r="B49">
-        <f ca="1">IF(ISNUMBER(C49),C49,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="C49">
@@ -6502,11 +7156,11 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f ca="1">IF(ISNUMBER(C50),A49+1024/44100,A49+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.0681219138322</v>
       </c>
       <c r="B50">
-        <f ca="1">IF(ISNUMBER(C50),C50,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="C50">
@@ -6515,11 +7169,11 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f ca="1">IF(ISNUMBER(C51),A50+1024/44100,A50+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.0913418684807261</v>
       </c>
       <c r="B51">
-        <f ca="1">IF(ISNUMBER(C51),C51,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="C51">
@@ -6528,11 +7182,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f ca="1">IF(ISNUMBER(C52),A51+1024/44100,A51+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.091342868480726</v>
       </c>
       <c r="B52">
-        <f ca="1">IF(ISNUMBER(C52),C52,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C52" t="s">
@@ -6541,11 +7195,11 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f ca="1">IF(ISNUMBER(C53),A52+1024/44100,A52+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1145628231292521</v>
       </c>
       <c r="B53">
-        <f ca="1">IF(ISNUMBER(C53),C53,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="C53">
@@ -6554,11 +7208,11 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f ca="1">IF(ISNUMBER(C54),A53+1024/44100,A53+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1145638231292521</v>
       </c>
       <c r="B54">
-        <f ca="1">IF(ISNUMBER(C54),C54,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C54" t="s">
@@ -6567,11 +7221,11 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f ca="1">IF(ISNUMBER(C55),A54+1024/44100,A54+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1377837777777782</v>
       </c>
       <c r="B55">
-        <f ca="1">IF(ISNUMBER(C55),C55,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="C55">
@@ -6580,11 +7234,11 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f ca="1">IF(ISNUMBER(C56),A55+1024/44100,A55+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1610037324263043</v>
       </c>
       <c r="B56">
-        <f ca="1">IF(ISNUMBER(C56),C56,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
       <c r="C56">
@@ -6593,11 +7247,11 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f ca="1">IF(ISNUMBER(C57),A56+1024/44100,A56+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1610047324263042</v>
       </c>
       <c r="B57">
-        <f ca="1">IF(ISNUMBER(C57),C57,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C57" t="s">
@@ -6606,11 +7260,11 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f ca="1">IF(ISNUMBER(C58),A57+1024/44100,A57+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.1842246870748303</v>
       </c>
       <c r="B58">
-        <f ca="1">IF(ISNUMBER(C58),C58,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="C58">
@@ -6619,11 +7273,11 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f ca="1">IF(ISNUMBER(C59),A58+1024/44100,A58+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2074446417233564</v>
       </c>
       <c r="B59">
-        <f ca="1">IF(ISNUMBER(C59),C59,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
       <c r="C59">
@@ -6632,11 +7286,11 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f ca="1">IF(ISNUMBER(C60),A59+1024/44100,A59+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2306645963718825</v>
       </c>
       <c r="B60">
-        <f ca="1">IF(ISNUMBER(C60),C60,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
       <c r="C60">
@@ -6645,11 +7299,11 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f ca="1">IF(ISNUMBER(C61),A60+1024/44100,A60+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2538845510204086</v>
       </c>
       <c r="B61">
-        <f ca="1">IF(ISNUMBER(C61),C61,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="C61">
@@ -6658,11 +7312,11 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f ca="1">IF(ISNUMBER(C62),A61+1024/44100,A61+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.2771045056689347</v>
       </c>
       <c r="B62">
-        <f ca="1">IF(ISNUMBER(C62),C62,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="C62">
@@ -6671,11 +7325,11 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f ca="1">IF(ISNUMBER(C63),A62+1024/44100,A62+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.3003244603174609</v>
       </c>
       <c r="B63">
-        <f ca="1">IF(ISNUMBER(C63),C63,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="C63">
@@ -6684,11 +7338,11 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f ca="1">IF(ISNUMBER(C64),A63+1024/44100,A63+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.323544414965987</v>
       </c>
       <c r="B64">
-        <f ca="1">IF(ISNUMBER(C64),C64,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="C64">
@@ -6697,11 +7351,11 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f ca="1">IF(ISNUMBER(C65),A64+1024/44100,A64+0.000001)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.3467643696145131</v>
       </c>
       <c r="B65">
-        <f ca="1">IF(ISNUMBER(C65),C65,0)</f>
+        <f t="shared" ref="B65:B128" ca="1" si="2">IF(ISNUMBER(C65),C65,0)</f>
         <v>62</v>
       </c>
       <c r="C65">
@@ -6710,11 +7364,11 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f ca="1">IF(ISNUMBER(C66),A65+1024/44100,A65+0.000001)</f>
+        <f t="shared" ref="A66:A129" ca="1" si="3">IF(ISNUMBER(C66),A65+1024/44100,A65+0.000001)</f>
         <v>1.346765369614513</v>
       </c>
       <c r="B66">
-        <f ca="1">IF(ISNUMBER(C66),C66,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" t="s">
@@ -6723,11 +7377,11 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f ca="1">IF(ISNUMBER(C67),A66+1024/44100,A66+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.3699853242630391</v>
       </c>
       <c r="B67">
-        <f ca="1">IF(ISNUMBER(C67),C67,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C67">
@@ -6736,11 +7390,11 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f ca="1">IF(ISNUMBER(C68),A67+1024/44100,A67+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.3932052789115652</v>
       </c>
       <c r="B68">
-        <f ca="1">IF(ISNUMBER(C68),C68,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="C68">
@@ -6749,11 +7403,11 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f ca="1">IF(ISNUMBER(C69),A68+1024/44100,A68+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4164252335600913</v>
       </c>
       <c r="B69">
-        <f ca="1">IF(ISNUMBER(C69),C69,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="C69">
@@ -6762,11 +7416,11 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f ca="1">IF(ISNUMBER(C70),A69+1024/44100,A69+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4396451882086174</v>
       </c>
       <c r="B70">
-        <f ca="1">IF(ISNUMBER(C70),C70,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="C70">
@@ -6775,11 +7429,11 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f ca="1">IF(ISNUMBER(C71),A70+1024/44100,A70+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4628651428571435</v>
       </c>
       <c r="B71">
-        <f ca="1">IF(ISNUMBER(C71),C71,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="C71">
@@ -6788,11 +7442,11 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f ca="1">IF(ISNUMBER(C72),A71+1024/44100,A71+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4860850975056696</v>
       </c>
       <c r="B72">
-        <f ca="1">IF(ISNUMBER(C72),C72,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="C72">
@@ -6801,11 +7455,11 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f ca="1">IF(ISNUMBER(C73),A72+1024/44100,A72+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.5093050521541957</v>
       </c>
       <c r="B73">
-        <f ca="1">IF(ISNUMBER(C73),C73,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="C73">
@@ -6814,11 +7468,11 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f ca="1">IF(ISNUMBER(C74),A73+1024/44100,A73+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.5325250068027219</v>
       </c>
       <c r="B74">
-        <f ca="1">IF(ISNUMBER(C74),C74,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="C74">
@@ -6827,11 +7481,11 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f ca="1">IF(ISNUMBER(C75),A74+1024/44100,A74+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.555744961451248</v>
       </c>
       <c r="B75">
-        <f ca="1">IF(ISNUMBER(C75),C75,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="C75">
@@ -6840,11 +7494,11 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f ca="1">IF(ISNUMBER(C76),A75+1024/44100,A75+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.5789649160997741</v>
       </c>
       <c r="B76">
-        <f ca="1">IF(ISNUMBER(C76),C76,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="C76">
@@ -6853,11 +7507,11 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f ca="1">IF(ISNUMBER(C77),A76+1024/44100,A76+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6021848707483002</v>
       </c>
       <c r="B77">
-        <f ca="1">IF(ISNUMBER(C77),C77,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="C77">
@@ -6866,11 +7520,11 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f ca="1">IF(ISNUMBER(C78),A77+1024/44100,A77+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6021858707483001</v>
       </c>
       <c r="B78">
-        <f ca="1">IF(ISNUMBER(C78),C78,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C78" t="s">
@@ -6879,11 +7533,11 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f ca="1">IF(ISNUMBER(C79),A78+1024/44100,A78+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6254058253968262</v>
       </c>
       <c r="B79">
-        <f ca="1">IF(ISNUMBER(C79),C79,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="C79">
@@ -6892,11 +7546,11 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f ca="1">IF(ISNUMBER(C80),A79+1024/44100,A79+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6486257800453523</v>
       </c>
       <c r="B80">
-        <f ca="1">IF(ISNUMBER(C80),C80,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="C80">
@@ -6905,11 +7559,11 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f ca="1">IF(ISNUMBER(C81),A80+1024/44100,A80+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6718457346938784</v>
       </c>
       <c r="B81">
-        <f ca="1">IF(ISNUMBER(C81),C81,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="C81">
@@ -6918,11 +7572,11 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f ca="1">IF(ISNUMBER(C82),A81+1024/44100,A81+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6718467346938783</v>
       </c>
       <c r="B82">
-        <f ca="1">IF(ISNUMBER(C82),C82,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C82" t="s">
@@ -6931,11 +7585,11 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f ca="1">IF(ISNUMBER(C83),A82+1024/44100,A82+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6950666893424045</v>
       </c>
       <c r="B83">
-        <f ca="1">IF(ISNUMBER(C83),C83,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
       <c r="C83">
@@ -6944,11 +7598,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f ca="1">IF(ISNUMBER(C84),A83+1024/44100,A83+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.6950676893424044</v>
       </c>
       <c r="B84">
-        <f ca="1">IF(ISNUMBER(C84),C84,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C84" t="s">
@@ -6957,11 +7611,11 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f ca="1">IF(ISNUMBER(C85),A84+1024/44100,A84+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7182876439909305</v>
       </c>
       <c r="B85">
-        <f ca="1">IF(ISNUMBER(C85),C85,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="C85">
@@ -6970,11 +7624,11 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f ca="1">IF(ISNUMBER(C86),A85+1024/44100,A85+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7182886439909304</v>
       </c>
       <c r="B86">
-        <f ca="1">IF(ISNUMBER(C86),C86,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C86" t="s">
@@ -6983,11 +7637,11 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f ca="1">IF(ISNUMBER(C87),A86+1024/44100,A86+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7415085986394565</v>
       </c>
       <c r="B87">
-        <f ca="1">IF(ISNUMBER(C87),C87,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="C87">
@@ -6996,11 +7650,11 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f ca="1">IF(ISNUMBER(C88),A87+1024/44100,A87+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7647285532879826</v>
       </c>
       <c r="B88">
-        <f ca="1">IF(ISNUMBER(C88),C88,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="C88">
@@ -7009,11 +7663,11 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f ca="1">IF(ISNUMBER(C89),A88+1024/44100,A88+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.7879485079365087</v>
       </c>
       <c r="B89">
-        <f ca="1">IF(ISNUMBER(C89),C89,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>73</v>
       </c>
       <c r="C89">
@@ -7022,11 +7676,11 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f ca="1">IF(ISNUMBER(C90),A89+1024/44100,A89+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8111684625850348</v>
       </c>
       <c r="B90">
-        <f ca="1">IF(ISNUMBER(C90),C90,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="C90">
@@ -7035,11 +7689,11 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f ca="1">IF(ISNUMBER(C91),A90+1024/44100,A90+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8343884172335609</v>
       </c>
       <c r="B91">
-        <f ca="1">IF(ISNUMBER(C91),C91,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="C91">
@@ -7048,11 +7702,11 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f ca="1">IF(ISNUMBER(C92),A91+1024/44100,A91+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8576083718820871</v>
       </c>
       <c r="B92">
-        <f ca="1">IF(ISNUMBER(C92),C92,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
       <c r="C92">
@@ -7061,11 +7715,11 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f ca="1">IF(ISNUMBER(C93),A92+1024/44100,A92+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8808283265306132</v>
       </c>
       <c r="B93">
-        <f ca="1">IF(ISNUMBER(C93),C93,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
       <c r="C93">
@@ -7074,11 +7728,11 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f ca="1">IF(ISNUMBER(C94),A93+1024/44100,A93+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9040482811791393</v>
       </c>
       <c r="B94">
-        <f ca="1">IF(ISNUMBER(C94),C94,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
       <c r="C94">
@@ -7087,11 +7741,11 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f ca="1">IF(ISNUMBER(C95),A94+1024/44100,A94+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9272682358276654</v>
       </c>
       <c r="B95">
-        <f ca="1">IF(ISNUMBER(C95),C95,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
       <c r="C95">
@@ -7100,11 +7754,11 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f ca="1">IF(ISNUMBER(C96),A95+1024/44100,A95+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9504881904761915</v>
       </c>
       <c r="B96">
-        <f ca="1">IF(ISNUMBER(C96),C96,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="C96">
@@ -7113,11 +7767,11 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f ca="1">IF(ISNUMBER(C97),A96+1024/44100,A96+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9737081451247176</v>
       </c>
       <c r="B97">
-        <f ca="1">IF(ISNUMBER(C97),C97,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="C97">
@@ -7126,11 +7780,11 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f ca="1">IF(ISNUMBER(C98),A97+1024/44100,A97+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1.9969280997732437</v>
       </c>
       <c r="B98">
-        <f ca="1">IF(ISNUMBER(C98),C98,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="C98">
@@ -7139,11 +7793,11 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f ca="1">IF(ISNUMBER(C99),A98+1024/44100,A98+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0201480544217696</v>
       </c>
       <c r="B99">
-        <f ca="1">IF(ISNUMBER(C99),C99,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="C99">
@@ -7152,11 +7806,11 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f ca="1">IF(ISNUMBER(C100),A99+1024/44100,A99+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0433680090702957</v>
       </c>
       <c r="B100">
-        <f ca="1">IF(ISNUMBER(C100),C100,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
       <c r="C100">
@@ -7165,11 +7819,11 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f ca="1">IF(ISNUMBER(C101),A100+1024/44100,A100+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0665879637188218</v>
       </c>
       <c r="B101">
-        <f ca="1">IF(ISNUMBER(C101),C101,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="C101">
@@ -7178,11 +7832,11 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f ca="1">IF(ISNUMBER(C102),A101+1024/44100,A101+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.0898079183673479</v>
       </c>
       <c r="B102">
-        <f ca="1">IF(ISNUMBER(C102),C102,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="C102">
@@ -7191,11 +7845,11 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f ca="1">IF(ISNUMBER(C103),A102+1024/44100,A102+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.113027873015874</v>
       </c>
       <c r="B103">
-        <f ca="1">IF(ISNUMBER(C103),C103,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C103">
@@ -7204,11 +7858,11 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f ca="1">IF(ISNUMBER(C104),A103+1024/44100,A103+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.1362478276644001</v>
       </c>
       <c r="B104">
-        <f ca="1">IF(ISNUMBER(C104),C104,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C104">
@@ -7217,11 +7871,11 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f ca="1">IF(ISNUMBER(C105),A104+1024/44100,A104+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.1594677823129262</v>
       </c>
       <c r="B105">
-        <f ca="1">IF(ISNUMBER(C105),C105,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="C105">
@@ -7230,11 +7884,11 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f ca="1">IF(ISNUMBER(C106),A105+1024/44100,A105+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.1826877369614524</v>
       </c>
       <c r="B106">
-        <f ca="1">IF(ISNUMBER(C106),C106,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C106">
@@ -7243,11 +7897,11 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f ca="1">IF(ISNUMBER(C107),A106+1024/44100,A106+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2059076916099785</v>
       </c>
       <c r="B107">
-        <f ca="1">IF(ISNUMBER(C107),C107,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="C107">
@@ -7256,11 +7910,11 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f ca="1">IF(ISNUMBER(C108),A107+1024/44100,A107+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2059086916099786</v>
       </c>
       <c r="B108">
-        <f ca="1">IF(ISNUMBER(C108),C108,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C108" t="s">
@@ -7269,11 +7923,11 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f ca="1">IF(ISNUMBER(C109),A108+1024/44100,A108+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2291286462585047</v>
       </c>
       <c r="B109">
-        <f ca="1">IF(ISNUMBER(C109),C109,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="C109">
@@ -7282,11 +7936,11 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f ca="1">IF(ISNUMBER(C110),A109+1024/44100,A109+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2523486009070308</v>
       </c>
       <c r="B110">
-        <f ca="1">IF(ISNUMBER(C110),C110,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="C110">
@@ -7295,11 +7949,11 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f ca="1">IF(ISNUMBER(C111),A110+1024/44100,A110+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2755685555555569</v>
       </c>
       <c r="B111">
-        <f ca="1">IF(ISNUMBER(C111),C111,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="C111">
@@ -7308,11 +7962,11 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f ca="1">IF(ISNUMBER(C112),A111+1024/44100,A111+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.298788510204083</v>
       </c>
       <c r="B112">
-        <f ca="1">IF(ISNUMBER(C112),C112,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C112">
@@ -7321,11 +7975,11 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f ca="1">IF(ISNUMBER(C113),A112+1024/44100,A112+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.3220084648526091</v>
       </c>
       <c r="B113">
-        <f ca="1">IF(ISNUMBER(C113),C113,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="C113">
@@ -7334,11 +7988,11 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f ca="1">IF(ISNUMBER(C114),A113+1024/44100,A113+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.3452284195011353</v>
       </c>
       <c r="B114">
-        <f ca="1">IF(ISNUMBER(C114),C114,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="C114">
@@ -7347,11 +8001,11 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f ca="1">IF(ISNUMBER(C115),A114+1024/44100,A114+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.3684483741496614</v>
       </c>
       <c r="B115">
-        <f ca="1">IF(ISNUMBER(C115),C115,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="C115">
@@ -7360,11 +8014,11 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f ca="1">IF(ISNUMBER(C116),A115+1024/44100,A115+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.3916683287981875</v>
       </c>
       <c r="B116">
-        <f ca="1">IF(ISNUMBER(C116),C116,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="C116">
@@ -7373,11 +8027,11 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f ca="1">IF(ISNUMBER(C117),A116+1024/44100,A116+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4148882834467136</v>
       </c>
       <c r="B117">
-        <f ca="1">IF(ISNUMBER(C117),C117,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="C117">
@@ -7386,11 +8040,11 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f ca="1">IF(ISNUMBER(C118),A117+1024/44100,A117+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4381082380952397</v>
       </c>
       <c r="B118">
-        <f ca="1">IF(ISNUMBER(C118),C118,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="C118">
@@ -7399,11 +8053,11 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f ca="1">IF(ISNUMBER(C119),A118+1024/44100,A118+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4613281927437658</v>
       </c>
       <c r="B119">
-        <f ca="1">IF(ISNUMBER(C119),C119,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="C119">
@@ -7412,11 +8066,11 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f ca="1">IF(ISNUMBER(C120),A119+1024/44100,A119+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4845481473922919</v>
       </c>
       <c r="B120">
-        <f ca="1">IF(ISNUMBER(C120),C120,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="C120">
@@ -7425,11 +8079,11 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f ca="1">IF(ISNUMBER(C121),A120+1024/44100,A120+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.507768102040818</v>
       </c>
       <c r="B121">
-        <f ca="1">IF(ISNUMBER(C121),C121,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="C121">
@@ -7438,11 +8092,11 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f ca="1">IF(ISNUMBER(C122),A121+1024/44100,A121+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.5309880566893441</v>
       </c>
       <c r="B122">
-        <f ca="1">IF(ISNUMBER(C122),C122,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="C122">
@@ -7451,11 +8105,11 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f ca="1">IF(ISNUMBER(C123),A122+1024/44100,A122+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.5542080113378702</v>
       </c>
       <c r="B123">
-        <f ca="1">IF(ISNUMBER(C123),C123,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="C123">
@@ -7464,11 +8118,11 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f ca="1">IF(ISNUMBER(C124),A123+1024/44100,A123+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.5774279659863963</v>
       </c>
       <c r="B124">
-        <f ca="1">IF(ISNUMBER(C124),C124,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="C124">
@@ -7477,11 +8131,11 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f ca="1">IF(ISNUMBER(C125),A124+1024/44100,A124+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6006479206349224</v>
       </c>
       <c r="B125">
-        <f ca="1">IF(ISNUMBER(C125),C125,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="C125">
@@ -7490,11 +8144,11 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f ca="1">IF(ISNUMBER(C126),A125+1024/44100,A125+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6238678752834486</v>
       </c>
       <c r="B126">
-        <f ca="1">IF(ISNUMBER(C126),C126,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="C126">
@@ -7503,11 +8157,11 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f ca="1">IF(ISNUMBER(C127),A126+1024/44100,A126+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6470878299319747</v>
       </c>
       <c r="B127">
-        <f ca="1">IF(ISNUMBER(C127),C127,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="C127">
@@ -7516,11 +8170,11 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f ca="1">IF(ISNUMBER(C128),A127+1024/44100,A127+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6703077845805008</v>
       </c>
       <c r="B128">
-        <f ca="1">IF(ISNUMBER(C128),C128,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="C128">
@@ -7529,11 +8183,11 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f ca="1">IF(ISNUMBER(C129),A128+1024/44100,A128+0.000001)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.6935277392290269</v>
       </c>
       <c r="B129">
-        <f ca="1">IF(ISNUMBER(C129),C129,0)</f>
+        <f t="shared" ref="B129:B192" ca="1" si="4">IF(ISNUMBER(C129),C129,0)</f>
         <v>57</v>
       </c>
       <c r="C129">
@@ -7542,11 +8196,11 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f ca="1">IF(ISNUMBER(C130),A129+1024/44100,A129+0.000001)</f>
+        <f t="shared" ref="A130:A193" ca="1" si="5">IF(ISNUMBER(C130),A129+1024/44100,A129+0.000001)</f>
         <v>2.716747693877553</v>
       </c>
       <c r="B130">
-        <f ca="1">IF(ISNUMBER(C130),C130,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="C130">
@@ -7555,11 +8209,11 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f ca="1">IF(ISNUMBER(C131),A130+1024/44100,A130+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.7167486938775531</v>
       </c>
       <c r="B131">
-        <f ca="1">IF(ISNUMBER(C131),C131,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C131" t="s">
@@ -7568,11 +8222,11 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f ca="1">IF(ISNUMBER(C132),A131+1024/44100,A131+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.7399686485260792</v>
       </c>
       <c r="B132">
-        <f ca="1">IF(ISNUMBER(C132),C132,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C132">
@@ -7581,11 +8235,11 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f ca="1">IF(ISNUMBER(C133),A132+1024/44100,A132+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.7631886031746054</v>
       </c>
       <c r="B133">
-        <f ca="1">IF(ISNUMBER(C133),C133,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="C133">
@@ -7594,11 +8248,11 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f ca="1">IF(ISNUMBER(C134),A133+1024/44100,A133+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.7864085578231315</v>
       </c>
       <c r="B134">
-        <f ca="1">IF(ISNUMBER(C134),C134,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C134">
@@ -7607,11 +8261,11 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f ca="1">IF(ISNUMBER(C135),A134+1024/44100,A134+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.8096285124716576</v>
       </c>
       <c r="B135">
-        <f ca="1">IF(ISNUMBER(C135),C135,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="C135">
@@ -7620,11 +8274,11 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f ca="1">IF(ISNUMBER(C136),A135+1024/44100,A135+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.8328484671201837</v>
       </c>
       <c r="B136">
-        <f ca="1">IF(ISNUMBER(C136),C136,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="C136">
@@ -7633,11 +8287,11 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f ca="1">IF(ISNUMBER(C137),A136+1024/44100,A136+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.8560684217687098</v>
       </c>
       <c r="B137">
-        <f ca="1">IF(ISNUMBER(C137),C137,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="C137">
@@ -7646,11 +8300,11 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f ca="1">IF(ISNUMBER(C138),A137+1024/44100,A137+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.8792883764172359</v>
       </c>
       <c r="B138">
-        <f ca="1">IF(ISNUMBER(C138),C138,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="C138">
@@ -7659,11 +8313,11 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f ca="1">IF(ISNUMBER(C139),A138+1024/44100,A138+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.902508331065762</v>
       </c>
       <c r="B139">
-        <f ca="1">IF(ISNUMBER(C139),C139,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="C139">
@@ -7672,11 +8326,11 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f ca="1">IF(ISNUMBER(C140),A139+1024/44100,A139+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.9257282857142881</v>
       </c>
       <c r="B140">
-        <f ca="1">IF(ISNUMBER(C140),C140,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="C140">
@@ -7685,11 +8339,11 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f ca="1">IF(ISNUMBER(C141),A140+1024/44100,A140+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.9489482403628142</v>
       </c>
       <c r="B141">
-        <f ca="1">IF(ISNUMBER(C141),C141,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="C141">
@@ -7698,11 +8352,11 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f ca="1">IF(ISNUMBER(C142),A141+1024/44100,A141+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.9721681950113403</v>
       </c>
       <c r="B142">
-        <f ca="1">IF(ISNUMBER(C142),C142,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="C142">
@@ -7711,11 +8365,11 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f ca="1">IF(ISNUMBER(C143),A142+1024/44100,A142+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.9953881496598664</v>
       </c>
       <c r="B143">
-        <f ca="1">IF(ISNUMBER(C143),C143,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="C143">
@@ -7724,11 +8378,11 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f ca="1">IF(ISNUMBER(C144),A143+1024/44100,A143+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.0186081043083925</v>
       </c>
       <c r="B144">
-        <f ca="1">IF(ISNUMBER(C144),C144,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>59</v>
       </c>
       <c r="C144">
@@ -7737,11 +8391,11 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f ca="1">IF(ISNUMBER(C145),A144+1024/44100,A144+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.0418280589569187</v>
       </c>
       <c r="B145">
-        <f ca="1">IF(ISNUMBER(C145),C145,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>59</v>
       </c>
       <c r="C145">
@@ -7750,11 +8404,11 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f ca="1">IF(ISNUMBER(C146),A145+1024/44100,A145+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.0650480136054448</v>
       </c>
       <c r="B146">
-        <f ca="1">IF(ISNUMBER(C146),C146,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="C146">
@@ -7763,11 +8417,11 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f ca="1">IF(ISNUMBER(C147),A146+1024/44100,A146+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.0882679682539709</v>
       </c>
       <c r="B147">
-        <f ca="1">IF(ISNUMBER(C147),C147,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="C147">
@@ -7776,11 +8430,11 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f ca="1">IF(ISNUMBER(C148),A147+1024/44100,A147+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.111487922902497</v>
       </c>
       <c r="B148">
-        <f ca="1">IF(ISNUMBER(C148),C148,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="C148">
@@ -7789,11 +8443,11 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f ca="1">IF(ISNUMBER(C149),A148+1024/44100,A148+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.1347078775510231</v>
       </c>
       <c r="B149">
-        <f ca="1">IF(ISNUMBER(C149),C149,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="C149">
@@ -7802,11 +8456,11 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f ca="1">IF(ISNUMBER(C150),A149+1024/44100,A149+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.1579278321995492</v>
       </c>
       <c r="B150">
-        <f ca="1">IF(ISNUMBER(C150),C150,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="C150">
@@ -7815,11 +8469,11 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f ca="1">IF(ISNUMBER(C151),A150+1024/44100,A150+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.1811477868480753</v>
       </c>
       <c r="B151">
-        <f ca="1">IF(ISNUMBER(C151),C151,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56</v>
       </c>
       <c r="C151">
@@ -7828,11 +8482,11 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f ca="1">IF(ISNUMBER(C152),A151+1024/44100,A151+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.2043677414966014</v>
       </c>
       <c r="B152">
-        <f ca="1">IF(ISNUMBER(C152),C152,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="C152">
@@ -7841,11 +8495,11 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f ca="1">IF(ISNUMBER(C153),A152+1024/44100,A152+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.2275876961451275</v>
       </c>
       <c r="B153">
-        <f ca="1">IF(ISNUMBER(C153),C153,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C153">
@@ -7854,11 +8508,11 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f ca="1">IF(ISNUMBER(C154),A153+1024/44100,A153+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.2275886961451277</v>
       </c>
       <c r="B154">
-        <f ca="1">IF(ISNUMBER(C154),C154,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C154" t="s">
@@ -7867,11 +8521,11 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f ca="1">IF(ISNUMBER(C155),A154+1024/44100,A154+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.2508086507936538</v>
       </c>
       <c r="B155">
-        <f ca="1">IF(ISNUMBER(C155),C155,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C155">
@@ -7880,11 +8534,11 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f ca="1">IF(ISNUMBER(C156),A155+1024/44100,A155+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.2740286054421799</v>
       </c>
       <c r="B156">
-        <f ca="1">IF(ISNUMBER(C156),C156,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="C156">
@@ -7893,11 +8547,11 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f ca="1">IF(ISNUMBER(C157),A156+1024/44100,A156+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.297248560090706</v>
       </c>
       <c r="B157">
-        <f ca="1">IF(ISNUMBER(C157),C157,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="C157">
@@ -7906,11 +8560,11 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f ca="1">IF(ISNUMBER(C158),A157+1024/44100,A157+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.3204685147392321</v>
       </c>
       <c r="B158">
-        <f ca="1">IF(ISNUMBER(C158),C158,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="C158">
@@ -7919,11 +8573,11 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f ca="1">IF(ISNUMBER(C159),A158+1024/44100,A158+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.3436884693877582</v>
       </c>
       <c r="B159">
-        <f ca="1">IF(ISNUMBER(C159),C159,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="C159">
@@ -7932,11 +8586,11 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f ca="1">IF(ISNUMBER(C160),A159+1024/44100,A159+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.3669084240362843</v>
       </c>
       <c r="B160">
-        <f ca="1">IF(ISNUMBER(C160),C160,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="C160">
@@ -7945,11 +8599,11 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f ca="1">IF(ISNUMBER(C161),A160+1024/44100,A160+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.3901283786848104</v>
       </c>
       <c r="B161">
-        <f ca="1">IF(ISNUMBER(C161),C161,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>59</v>
       </c>
       <c r="C161">
@@ -7958,11 +8612,11 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f ca="1">IF(ISNUMBER(C162),A161+1024/44100,A161+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.4133483333333365</v>
       </c>
       <c r="B162">
-        <f ca="1">IF(ISNUMBER(C162),C162,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>59</v>
       </c>
       <c r="C162">
@@ -7971,11 +8625,11 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f ca="1">IF(ISNUMBER(C163),A162+1024/44100,A162+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.4365682879818626</v>
       </c>
       <c r="B163">
-        <f ca="1">IF(ISNUMBER(C163),C163,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="C163">
@@ -7984,11 +8638,11 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f ca="1">IF(ISNUMBER(C164),A163+1024/44100,A163+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.4597882426303888</v>
       </c>
       <c r="B164">
-        <f ca="1">IF(ISNUMBER(C164),C164,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="C164">
@@ -7997,11 +8651,11 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f ca="1">IF(ISNUMBER(C165),A164+1024/44100,A164+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.4830081972789149</v>
       </c>
       <c r="B165">
-        <f ca="1">IF(ISNUMBER(C165),C165,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="C165">
@@ -8010,11 +8664,11 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f ca="1">IF(ISNUMBER(C166),A165+1024/44100,A165+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.506228151927441</v>
       </c>
       <c r="B166">
-        <f ca="1">IF(ISNUMBER(C166),C166,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56</v>
       </c>
       <c r="C166">
@@ -8023,11 +8677,11 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f ca="1">IF(ISNUMBER(C167),A166+1024/44100,A166+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.5294481065759671</v>
       </c>
       <c r="B167">
-        <f ca="1">IF(ISNUMBER(C167),C167,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56</v>
       </c>
       <c r="C167">
@@ -8036,11 +8690,11 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f ca="1">IF(ISNUMBER(C168),A167+1024/44100,A167+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.5526680612244932</v>
       </c>
       <c r="B168">
-        <f ca="1">IF(ISNUMBER(C168),C168,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="C168">
@@ -8049,11 +8703,11 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f ca="1">IF(ISNUMBER(C169),A168+1024/44100,A168+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.5758880158730193</v>
       </c>
       <c r="B169">
-        <f ca="1">IF(ISNUMBER(C169),C169,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="C169">
@@ -8062,11 +8716,11 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f ca="1">IF(ISNUMBER(C170),A169+1024/44100,A169+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.5991079705215454</v>
       </c>
       <c r="B170">
-        <f ca="1">IF(ISNUMBER(C170),C170,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="C170">
@@ -8075,11 +8729,11 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f ca="1">IF(ISNUMBER(C171),A170+1024/44100,A170+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.6223279251700715</v>
       </c>
       <c r="B171">
-        <f ca="1">IF(ISNUMBER(C171),C171,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="C171">
@@ -8088,11 +8742,11 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f ca="1">IF(ISNUMBER(C172),A171+1024/44100,A171+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.6455478798185976</v>
       </c>
       <c r="B172">
-        <f ca="1">IF(ISNUMBER(C172),C172,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="C172">
@@ -8101,11 +8755,11 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f ca="1">IF(ISNUMBER(C173),A172+1024/44100,A172+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.6687678344671237</v>
       </c>
       <c r="B173">
-        <f ca="1">IF(ISNUMBER(C173),C173,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="C173">
@@ -8114,11 +8768,11 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f ca="1">IF(ISNUMBER(C174),A173+1024/44100,A173+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.6919877891156498</v>
       </c>
       <c r="B174">
-        <f ca="1">IF(ISNUMBER(C174),C174,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="C174">
@@ -8127,11 +8781,11 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f ca="1">IF(ISNUMBER(C175),A174+1024/44100,A174+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.715207743764176</v>
       </c>
       <c r="B175">
-        <f ca="1">IF(ISNUMBER(C175),C175,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="C175">
@@ -8140,11 +8794,11 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f ca="1">IF(ISNUMBER(C176),A175+1024/44100,A175+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.7152087437641761</v>
       </c>
       <c r="B176">
-        <f ca="1">IF(ISNUMBER(C176),C176,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C176" t="s">
@@ -8153,11 +8807,11 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f ca="1">IF(ISNUMBER(C177),A176+1024/44100,A176+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.7384286984127022</v>
       </c>
       <c r="B177">
-        <f ca="1">IF(ISNUMBER(C177),C177,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>74</v>
       </c>
       <c r="C177">
@@ -8166,11 +8820,11 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f ca="1">IF(ISNUMBER(C178),A177+1024/44100,A177+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.7384296984127023</v>
       </c>
       <c r="B178">
-        <f ca="1">IF(ISNUMBER(C178),C178,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="C178" t="s">
@@ -8179,11 +8833,11 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f ca="1">IF(ISNUMBER(C179),A178+1024/44100,A178+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.7616496530612284</v>
       </c>
       <c r="B179">
-        <f ca="1">IF(ISNUMBER(C179),C179,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
       <c r="C179">
@@ -8192,11 +8846,11 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f ca="1">IF(ISNUMBER(C180),A179+1024/44100,A179+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.7848696077097546</v>
       </c>
       <c r="B180">
-        <f ca="1">IF(ISNUMBER(C180),C180,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
       <c r="C180">
@@ -8205,11 +8859,11 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f ca="1">IF(ISNUMBER(C181),A180+1024/44100,A180+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.8080895623582807</v>
       </c>
       <c r="B181">
-        <f ca="1">IF(ISNUMBER(C181),C181,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>72</v>
       </c>
       <c r="C181">
@@ -8218,11 +8872,11 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f ca="1">IF(ISNUMBER(C182),A181+1024/44100,A181+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.8313095170068068</v>
       </c>
       <c r="B182">
-        <f ca="1">IF(ISNUMBER(C182),C182,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>71</v>
       </c>
       <c r="C182">
@@ -8231,11 +8885,11 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f ca="1">IF(ISNUMBER(C183),A182+1024/44100,A182+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.8545294716553329</v>
       </c>
       <c r="B183">
-        <f ca="1">IF(ISNUMBER(C183),C183,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="C183">
@@ -8244,11 +8898,11 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f ca="1">IF(ISNUMBER(C184),A183+1024/44100,A183+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.877749426303859</v>
       </c>
       <c r="B184">
-        <f ca="1">IF(ISNUMBER(C184),C184,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="C184">
@@ -8257,11 +8911,11 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f ca="1">IF(ISNUMBER(C185),A184+1024/44100,A184+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.9009693809523851</v>
       </c>
       <c r="B185">
-        <f ca="1">IF(ISNUMBER(C185),C185,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>69</v>
       </c>
       <c r="C185">
@@ -8270,11 +8924,11 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f ca="1">IF(ISNUMBER(C186),A185+1024/44100,A185+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.9241893356009112</v>
       </c>
       <c r="B186">
-        <f ca="1">IF(ISNUMBER(C186),C186,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>68</v>
       </c>
       <c r="C186">
@@ -8283,11 +8937,11 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f ca="1">IF(ISNUMBER(C187),A186+1024/44100,A186+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.9474092902494373</v>
       </c>
       <c r="B187">
-        <f ca="1">IF(ISNUMBER(C187),C187,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="C187">
@@ -8296,11 +8950,11 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f ca="1">IF(ISNUMBER(C188),A187+1024/44100,A187+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.9706292448979634</v>
       </c>
       <c r="B188">
-        <f ca="1">IF(ISNUMBER(C188),C188,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="C188">
@@ -8309,11 +8963,11 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f ca="1">IF(ISNUMBER(C189),A188+1024/44100,A188+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.9938491995464895</v>
       </c>
       <c r="B189">
-        <f ca="1">IF(ISNUMBER(C189),C189,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="C189">
@@ -8322,11 +8976,11 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f ca="1">IF(ISNUMBER(C190),A189+1024/44100,A189+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.0170691541950152</v>
       </c>
       <c r="B190">
-        <f ca="1">IF(ISNUMBER(C190),C190,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C190">
@@ -8335,11 +8989,11 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f ca="1">IF(ISNUMBER(C191),A190+1024/44100,A190+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.0402891088435409</v>
       </c>
       <c r="B191">
-        <f ca="1">IF(ISNUMBER(C191),C191,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="C191">
@@ -8348,11 +9002,11 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f ca="1">IF(ISNUMBER(C192),A191+1024/44100,A191+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.0635090634920665</v>
       </c>
       <c r="B192">
-        <f ca="1">IF(ISNUMBER(C192),C192,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="C192">
@@ -8361,11 +9015,11 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f ca="1">IF(ISNUMBER(C193),A192+1024/44100,A192+0.000001)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.0867290181405922</v>
       </c>
       <c r="B193">
-        <f ca="1">IF(ISNUMBER(C193),C193,0)</f>
+        <f t="shared" ref="B193:B256" ca="1" si="6">IF(ISNUMBER(C193),C193,0)</f>
         <v>64</v>
       </c>
       <c r="C193">
@@ -8374,11 +9028,11 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f ca="1">IF(ISNUMBER(C194),A193+1024/44100,A193+0.000001)</f>
+        <f t="shared" ref="A194:A257" ca="1" si="7">IF(ISNUMBER(C194),A193+1024/44100,A193+0.000001)</f>
         <v>4.1099489727891179</v>
       </c>
       <c r="B194">
-        <f ca="1">IF(ISNUMBER(C194),C194,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
       <c r="C194">
@@ -8387,11 +9041,11 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f ca="1">IF(ISNUMBER(C195),A194+1024/44100,A194+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.1331689274376435</v>
       </c>
       <c r="B195">
-        <f ca="1">IF(ISNUMBER(C195),C195,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
       <c r="C195">
@@ -8400,11 +9054,11 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f ca="1">IF(ISNUMBER(C196),A195+1024/44100,A195+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.1563888820861692</v>
       </c>
       <c r="B196">
-        <f ca="1">IF(ISNUMBER(C196),C196,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
       <c r="C196">
@@ -8413,11 +9067,11 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f ca="1">IF(ISNUMBER(C197),A196+1024/44100,A196+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.1796088367346949</v>
       </c>
       <c r="B197">
-        <f ca="1">IF(ISNUMBER(C197),C197,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
       <c r="C197">
@@ -8426,11 +9080,11 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f ca="1">IF(ISNUMBER(C198),A197+1024/44100,A197+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2028287913832205</v>
       </c>
       <c r="B198">
-        <f ca="1">IF(ISNUMBER(C198),C198,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
       <c r="C198">
@@ -8439,11 +9093,11 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f ca="1">IF(ISNUMBER(C199),A198+1024/44100,A198+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2260487460317462</v>
       </c>
       <c r="B199">
-        <f ca="1">IF(ISNUMBER(C199),C199,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
       <c r="C199">
@@ -8452,11 +9106,11 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f ca="1">IF(ISNUMBER(C200),A199+1024/44100,A199+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2492687006802718</v>
       </c>
       <c r="B200">
-        <f ca="1">IF(ISNUMBER(C200),C200,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="C200">
@@ -8465,11 +9119,11 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f ca="1">IF(ISNUMBER(C201),A200+1024/44100,A200+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.249269700680272</v>
       </c>
       <c r="B201">
-        <f ca="1">IF(ISNUMBER(C201),C201,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C201" t="s">
@@ -8478,11 +9132,11 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f ca="1">IF(ISNUMBER(C202),A201+1024/44100,A201+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2724896553287977</v>
       </c>
       <c r="B202">
-        <f ca="1">IF(ISNUMBER(C202),C202,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C202">
@@ -8491,11 +9145,11 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f ca="1">IF(ISNUMBER(C203),A202+1024/44100,A202+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2724906553287978</v>
       </c>
       <c r="B203">
-        <f ca="1">IF(ISNUMBER(C203),C203,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C203" t="s">
@@ -8504,11 +9158,11 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f ca="1">IF(ISNUMBER(C204),A203+1024/44100,A203+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2957106099773235</v>
       </c>
       <c r="B204">
-        <f ca="1">IF(ISNUMBER(C204),C204,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
       <c r="C204">
@@ -8517,11 +9171,11 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f ca="1">IF(ISNUMBER(C205),A204+1024/44100,A204+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.2957116099773236</v>
       </c>
       <c r="B205">
-        <f ca="1">IF(ISNUMBER(C205),C205,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C205" t="s">
@@ -8530,11 +9184,11 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f ca="1">IF(ISNUMBER(C206),A205+1024/44100,A205+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3189315646258493</v>
       </c>
       <c r="B206">
-        <f ca="1">IF(ISNUMBER(C206),C206,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="C206">
@@ -8543,11 +9197,11 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f ca="1">IF(ISNUMBER(C207),A206+1024/44100,A206+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3421515192743749</v>
       </c>
       <c r="B207">
-        <f ca="1">IF(ISNUMBER(C207),C207,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="C207">
@@ -8556,11 +9210,11 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f ca="1">IF(ISNUMBER(C208),A207+1024/44100,A207+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3653714739229006</v>
       </c>
       <c r="B208">
-        <f ca="1">IF(ISNUMBER(C208),C208,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C208">
@@ -8569,11 +9223,11 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f ca="1">IF(ISNUMBER(C209),A208+1024/44100,A208+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3885914285714263</v>
       </c>
       <c r="B209">
-        <f ca="1">IF(ISNUMBER(C209),C209,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
       <c r="C209">
@@ -8582,11 +9236,11 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f ca="1">IF(ISNUMBER(C210),A209+1024/44100,A209+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3885924285714264</v>
       </c>
       <c r="B210">
-        <f ca="1">IF(ISNUMBER(C210),C210,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C210" t="s">
@@ -8595,11 +9249,11 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f ca="1">IF(ISNUMBER(C211),A210+1024/44100,A210+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.4118123832199521</v>
       </c>
       <c r="B211">
-        <f ca="1">IF(ISNUMBER(C211),C211,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80</v>
       </c>
       <c r="C211">
@@ -8608,11 +9262,11 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f ca="1">IF(ISNUMBER(C212),A211+1024/44100,A211+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.4350323378684777</v>
       </c>
       <c r="B212">
-        <f ca="1">IF(ISNUMBER(C212),C212,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80</v>
       </c>
       <c r="C212">
@@ -8621,11 +9275,11 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f ca="1">IF(ISNUMBER(C213),A212+1024/44100,A212+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.4582522925170034</v>
       </c>
       <c r="B213">
-        <f ca="1">IF(ISNUMBER(C213),C213,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
       <c r="C213">
@@ -8634,11 +9288,11 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f ca="1">IF(ISNUMBER(C214),A213+1024/44100,A213+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.4814722471655291</v>
       </c>
       <c r="B214">
-        <f ca="1">IF(ISNUMBER(C214),C214,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="C214">
@@ -8647,11 +9301,11 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f ca="1">IF(ISNUMBER(C215),A214+1024/44100,A214+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.5046922018140547</v>
       </c>
       <c r="B215">
-        <f ca="1">IF(ISNUMBER(C215),C215,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
       <c r="C215">
@@ -8660,11 +9314,11 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f ca="1">IF(ISNUMBER(C216),A215+1024/44100,A215+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.5279121564625804</v>
       </c>
       <c r="B216">
-        <f ca="1">IF(ISNUMBER(C216),C216,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>77</v>
       </c>
       <c r="C216">
@@ -8673,11 +9327,11 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f ca="1">IF(ISNUMBER(C217),A216+1024/44100,A216+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.551132111111106</v>
       </c>
       <c r="B217">
-        <f ca="1">IF(ISNUMBER(C217),C217,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C217">
@@ -8686,11 +9340,11 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f ca="1">IF(ISNUMBER(C218),A217+1024/44100,A217+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.5743520657596317</v>
       </c>
       <c r="B218">
-        <f ca="1">IF(ISNUMBER(C218),C218,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C218">
@@ -8699,11 +9353,11 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f ca="1">IF(ISNUMBER(C219),A218+1024/44100,A218+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.5975720204081574</v>
       </c>
       <c r="B219">
-        <f ca="1">IF(ISNUMBER(C219),C219,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="C219">
@@ -8712,11 +9366,11 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f ca="1">IF(ISNUMBER(C220),A219+1024/44100,A219+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.620791975056683</v>
       </c>
       <c r="B220">
-        <f ca="1">IF(ISNUMBER(C220),C220,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="C220">
@@ -8725,11 +9379,11 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f ca="1">IF(ISNUMBER(C221),A220+1024/44100,A220+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.6440119297052087</v>
       </c>
       <c r="B221">
-        <f ca="1">IF(ISNUMBER(C221),C221,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="C221">
@@ -8738,11 +9392,11 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f ca="1">IF(ISNUMBER(C222),A221+1024/44100,A221+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.6672318843537344</v>
       </c>
       <c r="B222">
-        <f ca="1">IF(ISNUMBER(C222),C222,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="C222">
@@ -8751,11 +9405,11 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f ca="1">IF(ISNUMBER(C223),A222+1024/44100,A222+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.69045183900226</v>
       </c>
       <c r="B223">
-        <f ca="1">IF(ISNUMBER(C223),C223,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>73</v>
       </c>
       <c r="C223">
@@ -8764,11 +9418,11 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f ca="1">IF(ISNUMBER(C224),A223+1024/44100,A223+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.7136717936507857</v>
       </c>
       <c r="B224">
-        <f ca="1">IF(ISNUMBER(C224),C224,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>72</v>
       </c>
       <c r="C224">
@@ -8777,11 +9431,11 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f ca="1">IF(ISNUMBER(C225),A224+1024/44100,A224+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.7368917482993114</v>
       </c>
       <c r="B225">
-        <f ca="1">IF(ISNUMBER(C225),C225,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
       <c r="C225">
@@ -8790,11 +9444,11 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f ca="1">IF(ISNUMBER(C226),A225+1024/44100,A225+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.760111702947837</v>
       </c>
       <c r="B226">
-        <f ca="1">IF(ISNUMBER(C226),C226,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
       <c r="C226">
@@ -8803,11 +9457,11 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f ca="1">IF(ISNUMBER(C227),A226+1024/44100,A226+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.7833316575963627</v>
       </c>
       <c r="B227">
-        <f ca="1">IF(ISNUMBER(C227),C227,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
       <c r="C227">
@@ -8816,11 +9470,11 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f ca="1">IF(ISNUMBER(C228),A227+1024/44100,A227+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.8065516122448884</v>
       </c>
       <c r="B228">
-        <f ca="1">IF(ISNUMBER(C228),C228,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
       <c r="C228">
@@ -8829,11 +9483,11 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f ca="1">IF(ISNUMBER(C229),A228+1024/44100,A228+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.829771566893414</v>
       </c>
       <c r="B229">
-        <f ca="1">IF(ISNUMBER(C229),C229,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C229">
@@ -8842,11 +9496,11 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f ca="1">IF(ISNUMBER(C230),A229+1024/44100,A229+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.8297725668934142</v>
       </c>
       <c r="B230">
-        <f ca="1">IF(ISNUMBER(C230),C230,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C230" t="s">
@@ -8855,11 +9509,11 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f ca="1">IF(ISNUMBER(C231),A230+1024/44100,A230+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.8529925215419398</v>
       </c>
       <c r="B231">
-        <f ca="1">IF(ISNUMBER(C231),C231,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C231">
@@ -8868,11 +9522,11 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f ca="1">IF(ISNUMBER(C232),A231+1024/44100,A231+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.8762124761904655</v>
       </c>
       <c r="B232">
-        <f ca="1">IF(ISNUMBER(C232),C232,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="C232">
@@ -8881,11 +9535,11 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f ca="1">IF(ISNUMBER(C233),A232+1024/44100,A232+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.8994324308389912</v>
       </c>
       <c r="B233">
-        <f ca="1">IF(ISNUMBER(C233),C233,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="C233">
@@ -8894,11 +9548,11 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f ca="1">IF(ISNUMBER(C234),A233+1024/44100,A233+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.9226523854875168</v>
       </c>
       <c r="B234">
-        <f ca="1">IF(ISNUMBER(C234),C234,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="C234">
@@ -8907,11 +9561,11 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f ca="1">IF(ISNUMBER(C235),A234+1024/44100,A234+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.9458723401360425</v>
       </c>
       <c r="B235">
-        <f ca="1">IF(ISNUMBER(C235),C235,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="C235">
@@ -8920,11 +9574,11 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f ca="1">IF(ISNUMBER(C236),A235+1024/44100,A235+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.9690922947845682</v>
       </c>
       <c r="B236">
-        <f ca="1">IF(ISNUMBER(C236),C236,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>72</v>
       </c>
       <c r="C236">
@@ -8933,11 +9587,11 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f ca="1">IF(ISNUMBER(C237),A236+1024/44100,A236+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.9923122494330938</v>
       </c>
       <c r="B237">
-        <f ca="1">IF(ISNUMBER(C237),C237,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
       <c r="C237">
@@ -8946,11 +9600,11 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f ca="1">IF(ISNUMBER(C238),A237+1024/44100,A237+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.0155322040816195</v>
       </c>
       <c r="B238">
-        <f ca="1">IF(ISNUMBER(C238),C238,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
       <c r="C238">
@@ -8959,11 +9613,11 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f ca="1">IF(ISNUMBER(C239),A238+1024/44100,A238+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.0387521587301451</v>
       </c>
       <c r="B239">
-        <f ca="1">IF(ISNUMBER(C239),C239,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="C239">
@@ -8972,11 +9626,11 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f ca="1">IF(ISNUMBER(C240),A239+1024/44100,A239+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.0619721133786708</v>
       </c>
       <c r="B240">
-        <f ca="1">IF(ISNUMBER(C240),C240,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>68</v>
       </c>
       <c r="C240">
@@ -8985,11 +9639,11 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f ca="1">IF(ISNUMBER(C241),A240+1024/44100,A240+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.0851920680271965</v>
       </c>
       <c r="B241">
-        <f ca="1">IF(ISNUMBER(C241),C241,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
       <c r="C241">
@@ -8998,11 +9652,11 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f ca="1">IF(ISNUMBER(C242),A241+1024/44100,A241+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.1084120226757221</v>
       </c>
       <c r="B242">
-        <f ca="1">IF(ISNUMBER(C242),C242,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
       <c r="C242">
@@ -9011,11 +9665,11 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f ca="1">IF(ISNUMBER(C243),A242+1024/44100,A242+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.1316319773242478</v>
       </c>
       <c r="B243">
-        <f ca="1">IF(ISNUMBER(C243),C243,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
       <c r="C243">
@@ -9024,11 +9678,11 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f ca="1">IF(ISNUMBER(C244),A243+1024/44100,A243+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.1548519319727735</v>
       </c>
       <c r="B244">
-        <f ca="1">IF(ISNUMBER(C244),C244,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>64</v>
       </c>
       <c r="C244">
@@ -9037,11 +9691,11 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f ca="1">IF(ISNUMBER(C245),A244+1024/44100,A244+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.1780718866212991</v>
       </c>
       <c r="B245">
-        <f ca="1">IF(ISNUMBER(C245),C245,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
       <c r="C245">
@@ -9050,11 +9704,11 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f ca="1">IF(ISNUMBER(C246),A245+1024/44100,A245+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.2012918412698248</v>
       </c>
       <c r="B246">
-        <f ca="1">IF(ISNUMBER(C246),C246,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
       <c r="C246">
@@ -9063,11 +9717,11 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f ca="1">IF(ISNUMBER(C247),A246+1024/44100,A246+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.2245117959183505</v>
       </c>
       <c r="B247">
-        <f ca="1">IF(ISNUMBER(C247),C247,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
       <c r="C247">
@@ -9076,11 +9730,11 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f ca="1">IF(ISNUMBER(C248),A247+1024/44100,A247+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.2477317505668761</v>
       </c>
       <c r="B248">
-        <f ca="1">IF(ISNUMBER(C248),C248,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
       <c r="C248">
@@ -9089,11 +9743,11 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f ca="1">IF(ISNUMBER(C249),A248+1024/44100,A248+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.2709517052154018</v>
       </c>
       <c r="B249">
-        <f ca="1">IF(ISNUMBER(C249),C249,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>59</v>
       </c>
       <c r="C249">
@@ -9102,11 +9756,11 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f ca="1">IF(ISNUMBER(C250),A249+1024/44100,A249+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.2941716598639275</v>
       </c>
       <c r="B250">
-        <f ca="1">IF(ISNUMBER(C250),C250,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>58</v>
       </c>
       <c r="C250">
@@ -9115,11 +9769,11 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f ca="1">IF(ISNUMBER(C251),A250+1024/44100,A250+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3173916145124531</v>
       </c>
       <c r="B251">
-        <f ca="1">IF(ISNUMBER(C251),C251,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
       <c r="C251">
@@ -9128,11 +9782,11 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f ca="1">IF(ISNUMBER(C252),A251+1024/44100,A251+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3173926145124533</v>
       </c>
       <c r="B252">
-        <f ca="1">IF(ISNUMBER(C252),C252,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C252" t="s">
@@ -9141,11 +9795,11 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f ca="1">IF(ISNUMBER(C253),A252+1024/44100,A252+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3406125691609789</v>
       </c>
       <c r="B253">
-        <f ca="1">IF(ISNUMBER(C253),C253,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="C253">
@@ -9154,11 +9808,11 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f ca="1">IF(ISNUMBER(C254),A253+1024/44100,A253+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3406135691609791</v>
       </c>
       <c r="B254">
-        <f ca="1">IF(ISNUMBER(C254),C254,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C254" t="s">
@@ -9167,11 +9821,11 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <f ca="1">IF(ISNUMBER(C255),A254+1024/44100,A254+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3638335238095047</v>
       </c>
       <c r="B255">
-        <f ca="1">IF(ISNUMBER(C255),C255,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>85</v>
       </c>
       <c r="C255">
@@ -9180,11 +9834,11 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <f ca="1">IF(ISNUMBER(C256),A255+1024/44100,A255+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3638345238095049</v>
       </c>
       <c r="B256">
-        <f ca="1">IF(ISNUMBER(C256),C256,0)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="C256" t="s">
@@ -9193,11 +9847,11 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <f ca="1">IF(ISNUMBER(C257),A256+1024/44100,A256+0.000001)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3870544784580305</v>
       </c>
       <c r="B257">
-        <f ca="1">IF(ISNUMBER(C257),C257,0)</f>
+        <f t="shared" ref="B257:B320" ca="1" si="8">IF(ISNUMBER(C257),C257,0)</f>
         <v>88</v>
       </c>
       <c r="C257">
@@ -9206,11 +9860,11 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f ca="1">IF(ISNUMBER(C258),A257+1024/44100,A257+0.000001)</f>
+        <f t="shared" ref="A258:A321" ca="1" si="9">IF(ISNUMBER(C258),A257+1024/44100,A257+0.000001)</f>
         <v>5.3870554784580307</v>
       </c>
       <c r="B258">
-        <f ca="1">IF(ISNUMBER(C258),C258,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="C258" t="s">
@@ -9219,11 +9873,11 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f ca="1">IF(ISNUMBER(C259),A258+1024/44100,A258+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.4102754331065563</v>
       </c>
       <c r="B259">
-        <f ca="1">IF(ISNUMBER(C259),C259,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>87</v>
       </c>
       <c r="C259">
@@ -9232,11 +9886,11 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f ca="1">IF(ISNUMBER(C260),A259+1024/44100,A259+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.433495387755082</v>
       </c>
       <c r="B260">
-        <f ca="1">IF(ISNUMBER(C260),C260,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>85</v>
       </c>
       <c r="C260">
@@ -9245,11 +9899,11 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f ca="1">IF(ISNUMBER(C261),A260+1024/44100,A260+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.4567153424036077</v>
       </c>
       <c r="B261">
-        <f ca="1">IF(ISNUMBER(C261),C261,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>83</v>
       </c>
       <c r="C261">
@@ -9258,11 +9912,11 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f ca="1">IF(ISNUMBER(C262),A261+1024/44100,A261+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.4799352970521333</v>
       </c>
       <c r="B262">
-        <f ca="1">IF(ISNUMBER(C262),C262,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="C262">
@@ -9271,11 +9925,11 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f ca="1">IF(ISNUMBER(C263),A262+1024/44100,A262+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.503155251700659</v>
       </c>
       <c r="B263">
-        <f ca="1">IF(ISNUMBER(C263),C263,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>83</v>
       </c>
       <c r="C263">
@@ -9284,11 +9938,11 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f ca="1">IF(ISNUMBER(C264),A263+1024/44100,A263+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.5263752063491847</v>
       </c>
       <c r="B264">
-        <f ca="1">IF(ISNUMBER(C264),C264,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>83</v>
       </c>
       <c r="C264">
@@ -9297,11 +9951,11 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <f ca="1">IF(ISNUMBER(C265),A264+1024/44100,A264+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.5495951609977103</v>
       </c>
       <c r="B265">
-        <f ca="1">IF(ISNUMBER(C265),C265,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="C265">
@@ -9310,11 +9964,11 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <f ca="1">IF(ISNUMBER(C266),A265+1024/44100,A265+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.572815115646236</v>
       </c>
       <c r="B266">
-        <f ca="1">IF(ISNUMBER(C266),C266,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="C266">
@@ -9323,11 +9977,11 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <f ca="1">IF(ISNUMBER(C267),A266+1024/44100,A266+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.5960350702947617</v>
       </c>
       <c r="B267">
-        <f ca="1">IF(ISNUMBER(C267),C267,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>80</v>
       </c>
       <c r="C267">
@@ -9336,11 +9990,11 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <f ca="1">IF(ISNUMBER(C268),A267+1024/44100,A267+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.6192550249432873</v>
       </c>
       <c r="B268">
-        <f ca="1">IF(ISNUMBER(C268),C268,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>80</v>
       </c>
       <c r="C268">
@@ -9349,11 +10003,11 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f ca="1">IF(ISNUMBER(C269),A268+1024/44100,A268+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.642474979591813</v>
       </c>
       <c r="B269">
-        <f ca="1">IF(ISNUMBER(C269),C269,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
       <c r="C269">
@@ -9362,11 +10016,11 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <f ca="1">IF(ISNUMBER(C270),A269+1024/44100,A269+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.6656949342403387</v>
       </c>
       <c r="B270">
-        <f ca="1">IF(ISNUMBER(C270),C270,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>78</v>
       </c>
       <c r="C270">
@@ -9375,11 +10029,11 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <f ca="1">IF(ISNUMBER(C271),A270+1024/44100,A270+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.6889148888888643</v>
       </c>
       <c r="B271">
-        <f ca="1">IF(ISNUMBER(C271),C271,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
       <c r="C271">
@@ -9388,11 +10042,11 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <f ca="1">IF(ISNUMBER(C272),A271+1024/44100,A271+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.71213484353739</v>
       </c>
       <c r="B272">
-        <f ca="1">IF(ISNUMBER(C272),C272,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
       <c r="C272">
@@ -9401,11 +10055,11 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f ca="1">IF(ISNUMBER(C273),A272+1024/44100,A272+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.7353547981859156</v>
       </c>
       <c r="B273">
-        <f ca="1">IF(ISNUMBER(C273),C273,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
       <c r="C273">
@@ -9414,11 +10068,11 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <f ca="1">IF(ISNUMBER(C274),A273+1024/44100,A273+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.7585747528344413</v>
       </c>
       <c r="B274">
-        <f ca="1">IF(ISNUMBER(C274),C274,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>75</v>
       </c>
       <c r="C274">
@@ -9427,11 +10081,11 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <f ca="1">IF(ISNUMBER(C275),A274+1024/44100,A274+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.781794707482967</v>
       </c>
       <c r="B275">
-        <f ca="1">IF(ISNUMBER(C275),C275,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
       <c r="C275">
@@ -9440,11 +10094,11 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <f ca="1">IF(ISNUMBER(C276),A275+1024/44100,A275+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8050146621314926</v>
       </c>
       <c r="B276">
-        <f ca="1">IF(ISNUMBER(C276),C276,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>71</v>
       </c>
       <c r="C276">
@@ -9453,11 +10107,11 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <f ca="1">IF(ISNUMBER(C277),A276+1024/44100,A276+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8282346167800183</v>
       </c>
       <c r="B277">
-        <f ca="1">IF(ISNUMBER(C277),C277,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
       <c r="C277">
@@ -9466,11 +10120,11 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <f ca="1">IF(ISNUMBER(C278),A277+1024/44100,A277+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8282356167800184</v>
       </c>
       <c r="B278">
-        <f ca="1">IF(ISNUMBER(C278),C278,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="C278" t="s">
@@ -9479,11 +10133,11 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <f ca="1">IF(ISNUMBER(C279),A278+1024/44100,A278+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8514555714285441</v>
       </c>
       <c r="B279">
-        <f ca="1">IF(ISNUMBER(C279),C279,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>75</v>
       </c>
       <c r="C279">
@@ -9492,11 +10146,11 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <f ca="1">IF(ISNUMBER(C280),A279+1024/44100,A279+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8746755260770698</v>
       </c>
       <c r="B280">
-        <f ca="1">IF(ISNUMBER(C280),C280,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>78</v>
       </c>
       <c r="C280">
@@ -9505,11 +10159,11 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <f ca="1">IF(ISNUMBER(C281),A280+1024/44100,A280+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8746765260770699</v>
       </c>
       <c r="B281">
-        <f ca="1">IF(ISNUMBER(C281),C281,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="C281" t="s">
@@ -9518,11 +10172,11 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <f ca="1">IF(ISNUMBER(C282),A281+1024/44100,A281+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.8978964807255956</v>
       </c>
       <c r="B282">
-        <f ca="1">IF(ISNUMBER(C282),C282,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>76</v>
       </c>
       <c r="C282">
@@ -9531,11 +10185,11 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <f ca="1">IF(ISNUMBER(C283),A282+1024/44100,A282+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.9211164353741212</v>
       </c>
       <c r="B283">
-        <f ca="1">IF(ISNUMBER(C283),C283,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>75</v>
       </c>
       <c r="C283">
@@ -9544,11 +10198,11 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f ca="1">IF(ISNUMBER(C284),A283+1024/44100,A283+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.9443363900226469</v>
       </c>
       <c r="B284">
-        <f ca="1">IF(ISNUMBER(C284),C284,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>75</v>
       </c>
       <c r="C284">
@@ -9557,11 +10211,11 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f ca="1">IF(ISNUMBER(C285),A284+1024/44100,A284+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.9675563446711726</v>
       </c>
       <c r="B285">
-        <f ca="1">IF(ISNUMBER(C285),C285,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>73</v>
       </c>
       <c r="C285">
@@ -9570,11 +10224,11 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f ca="1">IF(ISNUMBER(C286),A285+1024/44100,A285+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.9907762993196982</v>
       </c>
       <c r="B286">
-        <f ca="1">IF(ISNUMBER(C286),C286,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>72</v>
       </c>
       <c r="C286">
@@ -9583,11 +10237,11 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <f ca="1">IF(ISNUMBER(C287),A286+1024/44100,A286+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.0139962539682239</v>
       </c>
       <c r="B287">
-        <f ca="1">IF(ISNUMBER(C287),C287,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>72</v>
       </c>
       <c r="C287">
@@ -9596,11 +10250,11 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <f ca="1">IF(ISNUMBER(C288),A287+1024/44100,A287+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.0372162086167496</v>
       </c>
       <c r="B288">
-        <f ca="1">IF(ISNUMBER(C288),C288,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70</v>
       </c>
       <c r="C288">
@@ -9609,11 +10263,11 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <f ca="1">IF(ISNUMBER(C289),A288+1024/44100,A288+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.0604361632652752</v>
       </c>
       <c r="B289">
-        <f ca="1">IF(ISNUMBER(C289),C289,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="C289">
@@ -9622,11 +10276,11 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <f ca="1">IF(ISNUMBER(C290),A289+1024/44100,A289+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.0836561179138009</v>
       </c>
       <c r="B290">
-        <f ca="1">IF(ISNUMBER(C290),C290,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="C290">
@@ -9635,11 +10289,11 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <f ca="1">IF(ISNUMBER(C291),A290+1024/44100,A290+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.1068760725623266</v>
       </c>
       <c r="B291">
-        <f ca="1">IF(ISNUMBER(C291),C291,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>68</v>
       </c>
       <c r="C291">
@@ -9648,11 +10302,11 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <f ca="1">IF(ISNUMBER(C292),A291+1024/44100,A291+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.1300960272108522</v>
       </c>
       <c r="B292">
-        <f ca="1">IF(ISNUMBER(C292),C292,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
       <c r="C292">
@@ -9661,11 +10315,11 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <f ca="1">IF(ISNUMBER(C293),A292+1024/44100,A292+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.1533159818593779</v>
       </c>
       <c r="B293">
-        <f ca="1">IF(ISNUMBER(C293),C293,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
       <c r="C293">
@@ -9674,11 +10328,11 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <f ca="1">IF(ISNUMBER(C294),A293+1024/44100,A293+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.1765359365079036</v>
       </c>
       <c r="B294">
-        <f ca="1">IF(ISNUMBER(C294),C294,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
       <c r="C294">
@@ -9687,11 +10341,11 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <f ca="1">IF(ISNUMBER(C295),A294+1024/44100,A294+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.1997558911564292</v>
       </c>
       <c r="B295">
-        <f ca="1">IF(ISNUMBER(C295),C295,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>65</v>
       </c>
       <c r="C295">
@@ -9700,11 +10354,11 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <f ca="1">IF(ISNUMBER(C296),A295+1024/44100,A295+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.2229758458049549</v>
       </c>
       <c r="B296">
-        <f ca="1">IF(ISNUMBER(C296),C296,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>64</v>
       </c>
       <c r="C296">
@@ -9713,11 +10367,11 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <f ca="1">IF(ISNUMBER(C297),A296+1024/44100,A296+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.2461958004534806</v>
       </c>
       <c r="B297">
-        <f ca="1">IF(ISNUMBER(C297),C297,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>64</v>
       </c>
       <c r="C297">
@@ -9726,11 +10380,11 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <f ca="1">IF(ISNUMBER(C298),A297+1024/44100,A297+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.2694157551020062</v>
       </c>
       <c r="B298">
-        <f ca="1">IF(ISNUMBER(C298),C298,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
       </c>
       <c r="C298">
@@ -9739,11 +10393,11 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <f ca="1">IF(ISNUMBER(C299),A298+1024/44100,A298+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.2926357097505319</v>
       </c>
       <c r="B299">
-        <f ca="1">IF(ISNUMBER(C299),C299,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
       </c>
       <c r="C299">
@@ -9752,11 +10406,11 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <f ca="1">IF(ISNUMBER(C300),A299+1024/44100,A299+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.3158556643990575</v>
       </c>
       <c r="B300">
-        <f ca="1">IF(ISNUMBER(C300),C300,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>70</v>
       </c>
       <c r="C300">
@@ -9765,11 +10419,11 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <f ca="1">IF(ISNUMBER(C301),A300+1024/44100,A300+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.3158566643990577</v>
       </c>
       <c r="B301">
-        <f ca="1">IF(ISNUMBER(C301),C301,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="C301" t="s">
@@ -9778,11 +10432,11 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <f ca="1">IF(ISNUMBER(C302),A301+1024/44100,A301+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.3390766190475833</v>
       </c>
       <c r="B302">
-        <f ca="1">IF(ISNUMBER(C302),C302,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>72</v>
       </c>
       <c r="C302">
@@ -9791,11 +10445,11 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <f ca="1">IF(ISNUMBER(C303),A302+1024/44100,A302+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.362296573696109</v>
       </c>
       <c r="B303">
-        <f ca="1">IF(ISNUMBER(C303),C303,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="C303">
@@ -9804,11 +10458,11 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <f ca="1">IF(ISNUMBER(C304),A303+1024/44100,A303+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.3855165283446347</v>
       </c>
       <c r="B304">
-        <f ca="1">IF(ISNUMBER(C304),C304,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
       <c r="C304">
@@ -9817,11 +10471,11 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <f ca="1">IF(ISNUMBER(C305),A304+1024/44100,A304+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.4087364829931603</v>
       </c>
       <c r="B305">
-        <f ca="1">IF(ISNUMBER(C305),C305,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
       <c r="C305">
@@ -9830,11 +10484,11 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <f ca="1">IF(ISNUMBER(C306),A305+1024/44100,A305+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.431956437641686</v>
       </c>
       <c r="B306">
-        <f ca="1">IF(ISNUMBER(C306),C306,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
       <c r="C306">
@@ -9843,11 +10497,11 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <f ca="1">IF(ISNUMBER(C307),A306+1024/44100,A306+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.4551763922902117</v>
       </c>
       <c r="B307">
-        <f ca="1">IF(ISNUMBER(C307),C307,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>64</v>
       </c>
       <c r="C307">
@@ -9856,11 +10510,11 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <f ca="1">IF(ISNUMBER(C308),A307+1024/44100,A307+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.4783963469387373</v>
       </c>
       <c r="B308">
-        <f ca="1">IF(ISNUMBER(C308),C308,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
       </c>
       <c r="C308">
@@ -9869,11 +10523,11 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <f ca="1">IF(ISNUMBER(C309),A308+1024/44100,A308+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.501616301587263</v>
       </c>
       <c r="B309">
-        <f ca="1">IF(ISNUMBER(C309),C309,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>61</v>
       </c>
       <c r="C309">
@@ -9882,11 +10536,11 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f ca="1">IF(ISNUMBER(C310),A309+1024/44100,A309+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.5248362562357887</v>
       </c>
       <c r="B310">
-        <f ca="1">IF(ISNUMBER(C310),C310,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>60</v>
       </c>
       <c r="C310">
@@ -9895,11 +10549,11 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <f ca="1">IF(ISNUMBER(C311),A310+1024/44100,A310+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.5480562108843143</v>
       </c>
       <c r="B311">
-        <f ca="1">IF(ISNUMBER(C311),C311,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>59</v>
       </c>
       <c r="C311">
@@ -9908,11 +10562,11 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <f ca="1">IF(ISNUMBER(C312),A311+1024/44100,A311+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.57127616553284</v>
       </c>
       <c r="B312">
-        <f ca="1">IF(ISNUMBER(C312),C312,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>57</v>
       </c>
       <c r="C312">
@@ -9921,11 +10575,11 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <f ca="1">IF(ISNUMBER(C313),A312+1024/44100,A312+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.5944961201813657</v>
       </c>
       <c r="B313">
-        <f ca="1">IF(ISNUMBER(C313),C313,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>56</v>
       </c>
       <c r="C313">
@@ -9934,11 +10588,11 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <f ca="1">IF(ISNUMBER(C314),A313+1024/44100,A313+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.6177160748298913</v>
       </c>
       <c r="B314">
-        <f ca="1">IF(ISNUMBER(C314),C314,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>55</v>
       </c>
       <c r="C314">
@@ -9947,11 +10601,11 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <f ca="1">IF(ISNUMBER(C315),A314+1024/44100,A314+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.640936029478417</v>
       </c>
       <c r="B315">
-        <f ca="1">IF(ISNUMBER(C315),C315,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>54</v>
       </c>
       <c r="C315">
@@ -9960,11 +10614,11 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <f ca="1">IF(ISNUMBER(C316),A315+1024/44100,A315+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.6641559841269427</v>
       </c>
       <c r="B316">
-        <f ca="1">IF(ISNUMBER(C316),C316,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
       </c>
       <c r="C316">
@@ -9973,11 +10627,11 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <f ca="1">IF(ISNUMBER(C317),A316+1024/44100,A316+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.6873759387754683</v>
       </c>
       <c r="B317">
-        <f ca="1">IF(ISNUMBER(C317),C317,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
       </c>
       <c r="C317">
@@ -9986,11 +10640,11 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <f ca="1">IF(ISNUMBER(C318),A317+1024/44100,A317+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.710595893423994</v>
       </c>
       <c r="B318">
-        <f ca="1">IF(ISNUMBER(C318),C318,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
       <c r="C318">
@@ -9999,11 +10653,11 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <f ca="1">IF(ISNUMBER(C319),A318+1024/44100,A318+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.7338158480725196</v>
       </c>
       <c r="B319">
-        <f ca="1">IF(ISNUMBER(C319),C319,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
       <c r="C319">
@@ -10012,11 +10666,11 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <f ca="1">IF(ISNUMBER(C320),A319+1024/44100,A319+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.7570358027210453</v>
       </c>
       <c r="B320">
-        <f ca="1">IF(ISNUMBER(C320),C320,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>50</v>
       </c>
       <c r="C320">
@@ -10025,11 +10679,11 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <f ca="1">IF(ISNUMBER(C321),A320+1024/44100,A320+0.000001)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>6.780255757369571</v>
       </c>
       <c r="B321">
-        <f ca="1">IF(ISNUMBER(C321),C321,0)</f>
+        <f t="shared" ref="B321:B384" ca="1" si="10">IF(ISNUMBER(C321),C321,0)</f>
         <v>50</v>
       </c>
       <c r="C321">
@@ -10038,11 +10692,11 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <f ca="1">IF(ISNUMBER(C322),A321+1024/44100,A321+0.000001)</f>
+        <f t="shared" ref="A322:A385" ca="1" si="11">IF(ISNUMBER(C322),A321+1024/44100,A321+0.000001)</f>
         <v>6.8034757120180966</v>
       </c>
       <c r="B322">
-        <f ca="1">IF(ISNUMBER(C322),C322,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>49</v>
       </c>
       <c r="C322">
@@ -10051,11 +10705,11 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <f ca="1">IF(ISNUMBER(C323),A322+1024/44100,A322+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8266956666666223</v>
       </c>
       <c r="B323">
-        <f ca="1">IF(ISNUMBER(C323),C323,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>55</v>
       </c>
       <c r="C323">
@@ -10064,11 +10718,11 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <f ca="1">IF(ISNUMBER(C324),A323+1024/44100,A323+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8266966666666224</v>
       </c>
       <c r="B324">
-        <f ca="1">IF(ISNUMBER(C324),C324,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C324" t="s">
@@ -10077,11 +10731,11 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <f ca="1">IF(ISNUMBER(C325),A324+1024/44100,A324+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8499166213151481</v>
       </c>
       <c r="B325">
-        <f ca="1">IF(ISNUMBER(C325),C325,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>66</v>
       </c>
       <c r="C325">
@@ -10090,11 +10744,11 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <f ca="1">IF(ISNUMBER(C326),A325+1024/44100,A325+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8499176213151483</v>
       </c>
       <c r="B326">
-        <f ca="1">IF(ISNUMBER(C326),C326,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C326" t="s">
@@ -10103,11 +10757,11 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <f ca="1">IF(ISNUMBER(C327),A326+1024/44100,A326+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8731375759636739</v>
       </c>
       <c r="B327">
-        <f ca="1">IF(ISNUMBER(C327),C327,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
       <c r="C327">
@@ -10116,11 +10770,11 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f ca="1">IF(ISNUMBER(C328),A327+1024/44100,A327+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8963575306121996</v>
       </c>
       <c r="B328">
-        <f ca="1">IF(ISNUMBER(C328),C328,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>57</v>
       </c>
       <c r="C328">
@@ -10129,11 +10783,11 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <f ca="1">IF(ISNUMBER(C329),A328+1024/44100,A328+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.9195774852607252</v>
       </c>
       <c r="B329">
-        <f ca="1">IF(ISNUMBER(C329),C329,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>58</v>
       </c>
       <c r="C329">
@@ -10142,11 +10796,11 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <f ca="1">IF(ISNUMBER(C330),A329+1024/44100,A329+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.9427974399092509</v>
       </c>
       <c r="B330">
-        <f ca="1">IF(ISNUMBER(C330),C330,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>56</v>
       </c>
       <c r="C330">
@@ -10155,11 +10809,11 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <f ca="1">IF(ISNUMBER(C331),A330+1024/44100,A330+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.9660173945577766</v>
       </c>
       <c r="B331">
-        <f ca="1">IF(ISNUMBER(C331),C331,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>54</v>
       </c>
       <c r="C331">
@@ -10168,11 +10822,11 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <f ca="1">IF(ISNUMBER(C332),A331+1024/44100,A331+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.9892373492063022</v>
       </c>
       <c r="B332">
-        <f ca="1">IF(ISNUMBER(C332),C332,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
       <c r="C332">
@@ -10181,11 +10835,11 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <f ca="1">IF(ISNUMBER(C333),A332+1024/44100,A332+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.0124573038548279</v>
       </c>
       <c r="B333">
-        <f ca="1">IF(ISNUMBER(C333),C333,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
       <c r="C333">
@@ -10194,11 +10848,11 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <f ca="1">IF(ISNUMBER(C334),A333+1024/44100,A333+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.0356772585033536</v>
       </c>
       <c r="B334">
-        <f ca="1">IF(ISNUMBER(C334),C334,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>50</v>
       </c>
       <c r="C334">
@@ -10207,11 +10861,11 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <f ca="1">IF(ISNUMBER(C335),A334+1024/44100,A334+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.0588972131518792</v>
       </c>
       <c r="B335">
-        <f ca="1">IF(ISNUMBER(C335),C335,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>48</v>
       </c>
       <c r="C335">
@@ -10220,11 +10874,11 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <f ca="1">IF(ISNUMBER(C336),A335+1024/44100,A335+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.0821171678004049</v>
       </c>
       <c r="B336">
-        <f ca="1">IF(ISNUMBER(C336),C336,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>48</v>
       </c>
       <c r="C336">
@@ -10233,11 +10887,11 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <f ca="1">IF(ISNUMBER(C337),A336+1024/44100,A336+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.1053371224489306</v>
       </c>
       <c r="B337">
-        <f ca="1">IF(ISNUMBER(C337),C337,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>47</v>
       </c>
       <c r="C337">
@@ -10246,11 +10900,11 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <f ca="1">IF(ISNUMBER(C338),A337+1024/44100,A337+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.1285570770974562</v>
       </c>
       <c r="B338">
-        <f ca="1">IF(ISNUMBER(C338),C338,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>46</v>
       </c>
       <c r="C338">
@@ -10259,11 +10913,11 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <f ca="1">IF(ISNUMBER(C339),A338+1024/44100,A338+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.1517770317459819</v>
       </c>
       <c r="B339">
-        <f ca="1">IF(ISNUMBER(C339),C339,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
       <c r="C339">
@@ -10272,11 +10926,11 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <f ca="1">IF(ISNUMBER(C340),A339+1024/44100,A339+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.1749969863945076</v>
       </c>
       <c r="B340">
-        <f ca="1">IF(ISNUMBER(C340),C340,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>44</v>
       </c>
       <c r="C340">
@@ -10285,11 +10939,11 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <f ca="1">IF(ISNUMBER(C341),A340+1024/44100,A340+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.1982169410430332</v>
       </c>
       <c r="B341">
-        <f ca="1">IF(ISNUMBER(C341),C341,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>43</v>
       </c>
       <c r="C341">
@@ -10298,11 +10952,11 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <f ca="1">IF(ISNUMBER(C342),A341+1024/44100,A341+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.2214368956915589</v>
       </c>
       <c r="B342">
-        <f ca="1">IF(ISNUMBER(C342),C342,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>42</v>
       </c>
       <c r="C342">
@@ -10311,11 +10965,11 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <f ca="1">IF(ISNUMBER(C343),A342+1024/44100,A342+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.2446568503400846</v>
       </c>
       <c r="B343">
-        <f ca="1">IF(ISNUMBER(C343),C343,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>43</v>
       </c>
       <c r="C343">
@@ -10324,11 +10978,11 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <f ca="1">IF(ISNUMBER(C344),A343+1024/44100,A343+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.2678768049886102</v>
       </c>
       <c r="B344">
-        <f ca="1">IF(ISNUMBER(C344),C344,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>44</v>
       </c>
       <c r="C344">
@@ -10337,11 +10991,11 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <f ca="1">IF(ISNUMBER(C345),A344+1024/44100,A344+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.2910967596371359</v>
       </c>
       <c r="B345">
-        <f ca="1">IF(ISNUMBER(C345),C345,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>42</v>
       </c>
       <c r="C345">
@@ -10350,11 +11004,11 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <f ca="1">IF(ISNUMBER(C346),A345+1024/44100,A345+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.3143167142856615</v>
       </c>
       <c r="B346">
-        <f ca="1">IF(ISNUMBER(C346),C346,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>41</v>
       </c>
       <c r="C346">
@@ -10363,11 +11017,11 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <f ca="1">IF(ISNUMBER(C347),A346+1024/44100,A346+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.3375366689341872</v>
       </c>
       <c r="B347">
-        <f ca="1">IF(ISNUMBER(C347),C347,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>50</v>
       </c>
       <c r="C347">
@@ -10376,11 +11030,11 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <f ca="1">IF(ISNUMBER(C348),A347+1024/44100,A347+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.3375376689341874</v>
       </c>
       <c r="B348">
-        <f ca="1">IF(ISNUMBER(C348),C348,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C348" t="s">
@@ -10389,11 +11043,11 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <f ca="1">IF(ISNUMBER(C349),A348+1024/44100,A348+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.360757623582713</v>
       </c>
       <c r="B349">
-        <f ca="1">IF(ISNUMBER(C349),C349,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>65</v>
       </c>
       <c r="C349">
@@ -10402,11 +11056,11 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <f ca="1">IF(ISNUMBER(C350),A349+1024/44100,A349+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.3607586235827132</v>
       </c>
       <c r="B350">
-        <f ca="1">IF(ISNUMBER(C350),C350,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C350" t="s">
@@ -10415,11 +11069,11 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <f ca="1">IF(ISNUMBER(C351),A350+1024/44100,A350+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.3839785782312388</v>
       </c>
       <c r="B351">
-        <f ca="1">IF(ISNUMBER(C351),C351,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>67</v>
       </c>
       <c r="C351">
@@ -10428,11 +11082,11 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <f ca="1">IF(ISNUMBER(C352),A351+1024/44100,A351+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.4071985328797645</v>
       </c>
       <c r="B352">
-        <f ca="1">IF(ISNUMBER(C352),C352,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>65</v>
       </c>
       <c r="C352">
@@ -10441,11 +11095,11 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <f ca="1">IF(ISNUMBER(C353),A352+1024/44100,A352+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.4304184875282902</v>
       </c>
       <c r="B353">
-        <f ca="1">IF(ISNUMBER(C353),C353,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>63</v>
       </c>
       <c r="C353">
@@ -10454,11 +11108,11 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <f ca="1">IF(ISNUMBER(C354),A353+1024/44100,A353+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.4536384421768158</v>
       </c>
       <c r="B354">
-        <f ca="1">IF(ISNUMBER(C354),C354,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>61</v>
       </c>
       <c r="C354">
@@ -10467,11 +11121,11 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <f ca="1">IF(ISNUMBER(C355),A354+1024/44100,A354+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.4768583968253415</v>
       </c>
       <c r="B355">
-        <f ca="1">IF(ISNUMBER(C355),C355,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>59</v>
       </c>
       <c r="C355">
@@ -10480,11 +11134,11 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <f ca="1">IF(ISNUMBER(C356),A355+1024/44100,A355+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5000783514738671</v>
       </c>
       <c r="B356">
-        <f ca="1">IF(ISNUMBER(C356),C356,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>58</v>
       </c>
       <c r="C356">
@@ -10493,11 +11147,11 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <f ca="1">IF(ISNUMBER(C357),A356+1024/44100,A356+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5232983061223928</v>
       </c>
       <c r="B357">
-        <f ca="1">IF(ISNUMBER(C357),C357,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>57</v>
       </c>
       <c r="C357">
@@ -10506,11 +11160,11 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <f ca="1">IF(ISNUMBER(C358),A357+1024/44100,A357+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5465182607709185</v>
       </c>
       <c r="B358">
-        <f ca="1">IF(ISNUMBER(C358),C358,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>56</v>
       </c>
       <c r="C358">
@@ -10519,11 +11173,11 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <f ca="1">IF(ISNUMBER(C359),A358+1024/44100,A358+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5697382154194441</v>
       </c>
       <c r="B359">
-        <f ca="1">IF(ISNUMBER(C359),C359,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>55</v>
       </c>
       <c r="C359">
@@ -10532,11 +11186,11 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <f ca="1">IF(ISNUMBER(C360),A359+1024/44100,A359+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.5929581700679698</v>
       </c>
       <c r="B360">
-        <f ca="1">IF(ISNUMBER(C360),C360,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>54</v>
       </c>
       <c r="C360">
@@ -10545,11 +11199,11 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <f ca="1">IF(ISNUMBER(C361),A360+1024/44100,A360+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.6161781247164955</v>
       </c>
       <c r="B361">
-        <f ca="1">IF(ISNUMBER(C361),C361,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>53</v>
       </c>
       <c r="C361">
@@ -10558,11 +11212,11 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <f ca="1">IF(ISNUMBER(C362),A361+1024/44100,A361+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.6393980793650211</v>
       </c>
       <c r="B362">
-        <f ca="1">IF(ISNUMBER(C362),C362,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
       <c r="C362">
@@ -10571,11 +11225,11 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <f ca="1">IF(ISNUMBER(C363),A362+1024/44100,A362+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.6626180340135468</v>
       </c>
       <c r="B363">
-        <f ca="1">IF(ISNUMBER(C363),C363,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>50</v>
       </c>
       <c r="C363">
@@ -10584,11 +11238,11 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <f ca="1">IF(ISNUMBER(C364),A363+1024/44100,A363+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.6858379886620725</v>
       </c>
       <c r="B364">
-        <f ca="1">IF(ISNUMBER(C364),C364,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>48</v>
       </c>
       <c r="C364">
@@ -10597,11 +11251,11 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <f ca="1">IF(ISNUMBER(C365),A364+1024/44100,A364+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.7090579433105981</v>
       </c>
       <c r="B365">
-        <f ca="1">IF(ISNUMBER(C365),C365,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>47</v>
       </c>
       <c r="C365">
@@ -10610,11 +11264,11 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <f ca="1">IF(ISNUMBER(C366),A365+1024/44100,A365+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.7322778979591238</v>
       </c>
       <c r="B366">
-        <f ca="1">IF(ISNUMBER(C366),C366,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>47</v>
       </c>
       <c r="C366">
@@ -10623,11 +11277,11 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <f ca="1">IF(ISNUMBER(C367),A366+1024/44100,A366+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.7554978526076495</v>
       </c>
       <c r="B367">
-        <f ca="1">IF(ISNUMBER(C367),C367,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
       <c r="C367">
@@ -10636,11 +11290,11 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <f ca="1">IF(ISNUMBER(C368),A367+1024/44100,A367+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.7787178072561751</v>
       </c>
       <c r="B368">
-        <f ca="1">IF(ISNUMBER(C368),C368,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
       <c r="C368">
@@ -10649,11 +11303,11 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <f ca="1">IF(ISNUMBER(C369),A368+1024/44100,A368+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8019377619047008</v>
       </c>
       <c r="B369">
-        <f ca="1">IF(ISNUMBER(C369),C369,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>44</v>
       </c>
       <c r="C369">
@@ -10662,11 +11316,11 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <f ca="1">IF(ISNUMBER(C370),A369+1024/44100,A369+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8251577165532265</v>
       </c>
       <c r="B370">
-        <f ca="1">IF(ISNUMBER(C370),C370,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>45</v>
       </c>
       <c r="C370">
@@ -10675,11 +11329,11 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <f ca="1">IF(ISNUMBER(C371),A370+1024/44100,A370+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8483776712017521</v>
       </c>
       <c r="B371">
-        <f ca="1">IF(ISNUMBER(C371),C371,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>44</v>
       </c>
       <c r="C371">
@@ -10688,11 +11342,11 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <f ca="1">IF(ISNUMBER(C372),A371+1024/44100,A371+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8715976258502778</v>
       </c>
       <c r="B372">
-        <f ca="1">IF(ISNUMBER(C372),C372,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>61</v>
       </c>
       <c r="C372">
@@ -10701,11 +11355,11 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <f ca="1">IF(ISNUMBER(C373),A372+1024/44100,A372+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8715986258502779</v>
       </c>
       <c r="B373">
-        <f ca="1">IF(ISNUMBER(C373),C373,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C373" t="s">
@@ -10714,11 +11368,11 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <f ca="1">IF(ISNUMBER(C374),A373+1024/44100,A373+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8948185804988036</v>
       </c>
       <c r="B374">
-        <f ca="1">IF(ISNUMBER(C374),C374,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>74</v>
       </c>
       <c r="C374">
@@ -10727,11 +11381,11 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <f ca="1">IF(ISNUMBER(C375),A374+1024/44100,A374+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.8948195804988037</v>
       </c>
       <c r="B375">
-        <f ca="1">IF(ISNUMBER(C375),C375,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="C375" t="s">
@@ -10740,11 +11394,11 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <f ca="1">IF(ISNUMBER(C376),A375+1024/44100,A375+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.9180395351473294</v>
       </c>
       <c r="B376">
-        <f ca="1">IF(ISNUMBER(C376),C376,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>76</v>
       </c>
       <c r="C376">
@@ -10753,11 +11407,11 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <f ca="1">IF(ISNUMBER(C377),A376+1024/44100,A376+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.9412594897958551</v>
       </c>
       <c r="B377">
-        <f ca="1">IF(ISNUMBER(C377),C377,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>77</v>
       </c>
       <c r="C377">
@@ -10766,11 +11420,11 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <f ca="1">IF(ISNUMBER(C378),A377+1024/44100,A377+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.9644794444443807</v>
       </c>
       <c r="B378">
-        <f ca="1">IF(ISNUMBER(C378),C378,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>78</v>
       </c>
       <c r="C378">
@@ -10779,11 +11433,11 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <f ca="1">IF(ISNUMBER(C379),A378+1024/44100,A378+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.9876993990929064</v>
       </c>
       <c r="B379">
-        <f ca="1">IF(ISNUMBER(C379),C379,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>76</v>
       </c>
       <c r="C379">
@@ -10792,11 +11446,11 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <f ca="1">IF(ISNUMBER(C380),A379+1024/44100,A379+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.010919353741432</v>
       </c>
       <c r="B380">
-        <f ca="1">IF(ISNUMBER(C380),C380,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>74</v>
       </c>
       <c r="C380">
@@ -10805,11 +11459,11 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <f ca="1">IF(ISNUMBER(C381),A380+1024/44100,A380+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.0341393083899586</v>
       </c>
       <c r="B381">
-        <f ca="1">IF(ISNUMBER(C381),C381,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>71</v>
       </c>
       <c r="C381">
@@ -10818,11 +11472,11 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <f ca="1">IF(ISNUMBER(C382),A381+1024/44100,A381+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.0573592630384852</v>
       </c>
       <c r="B382">
-        <f ca="1">IF(ISNUMBER(C382),C382,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>70</v>
       </c>
       <c r="C382">
@@ -10831,11 +11485,11 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <f ca="1">IF(ISNUMBER(C383),A382+1024/44100,A382+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.0805792176870117</v>
       </c>
       <c r="B383">
-        <f ca="1">IF(ISNUMBER(C383),C383,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>68</v>
       </c>
       <c r="C383">
@@ -10844,11 +11498,11 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <f ca="1">IF(ISNUMBER(C384),A383+1024/44100,A383+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.1037991723355383</v>
       </c>
       <c r="B384">
-        <f ca="1">IF(ISNUMBER(C384),C384,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>65</v>
       </c>
       <c r="C384">
@@ -10857,11 +11511,11 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <f ca="1">IF(ISNUMBER(C385),A384+1024/44100,A384+0.000001)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>8.1270191269840648</v>
       </c>
       <c r="B385">
-        <f ca="1">IF(ISNUMBER(C385),C385,0)</f>
+        <f t="shared" ref="B385:B448" ca="1" si="12">IF(ISNUMBER(C385),C385,0)</f>
         <v>64</v>
       </c>
       <c r="C385">
@@ -10870,11 +11524,11 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <f ca="1">IF(ISNUMBER(C386),A385+1024/44100,A385+0.000001)</f>
+        <f t="shared" ref="A386:A449" ca="1" si="13">IF(ISNUMBER(C386),A385+1024/44100,A385+0.000001)</f>
         <v>8.1502390816325914</v>
       </c>
       <c r="B386">
-        <f ca="1">IF(ISNUMBER(C386),C386,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>62</v>
       </c>
       <c r="C386">
@@ -10883,11 +11537,11 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <f ca="1">IF(ISNUMBER(C387),A386+1024/44100,A386+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.1734590362811179</v>
       </c>
       <c r="B387">
-        <f ca="1">IF(ISNUMBER(C387),C387,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>61</v>
       </c>
       <c r="C387">
@@ -10896,11 +11550,11 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <f ca="1">IF(ISNUMBER(C388),A387+1024/44100,A387+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.1966789909296445</v>
       </c>
       <c r="B388">
-        <f ca="1">IF(ISNUMBER(C388),C388,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>59</v>
       </c>
       <c r="C388">
@@ -10909,11 +11563,11 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <f ca="1">IF(ISNUMBER(C389),A388+1024/44100,A388+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.219898945578171</v>
       </c>
       <c r="B389">
-        <f ca="1">IF(ISNUMBER(C389),C389,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>57</v>
       </c>
       <c r="C389">
@@ -10922,11 +11576,11 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <f ca="1">IF(ISNUMBER(C390),A389+1024/44100,A389+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.2431189002266976</v>
       </c>
       <c r="B390">
-        <f ca="1">IF(ISNUMBER(C390),C390,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
       <c r="C390">
@@ -10935,11 +11589,11 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <f ca="1">IF(ISNUMBER(C391),A390+1024/44100,A390+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.2663388548752241</v>
       </c>
       <c r="B391">
-        <f ca="1">IF(ISNUMBER(C391),C391,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
       <c r="C391">
@@ -10948,11 +11602,11 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <f ca="1">IF(ISNUMBER(C392),A391+1024/44100,A391+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.2895588095237507</v>
       </c>
       <c r="B392">
-        <f ca="1">IF(ISNUMBER(C392),C392,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>55</v>
       </c>
       <c r="C392">
@@ -10961,11 +11615,11 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <f ca="1">IF(ISNUMBER(C393),A392+1024/44100,A392+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3127787641722772</v>
       </c>
       <c r="B393">
-        <f ca="1">IF(ISNUMBER(C393),C393,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>53</v>
       </c>
       <c r="C393">
@@ -10974,11 +11628,11 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <f ca="1">IF(ISNUMBER(C394),A393+1024/44100,A393+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3359987188208038</v>
       </c>
       <c r="B394">
-        <f ca="1">IF(ISNUMBER(C394),C394,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>52</v>
       </c>
       <c r="C394">
@@ -10987,11 +11641,11 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <f ca="1">IF(ISNUMBER(C395),A394+1024/44100,A394+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3592186734693303</v>
       </c>
       <c r="B395">
-        <f ca="1">IF(ISNUMBER(C395),C395,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>53</v>
       </c>
       <c r="C395">
@@ -11000,11 +11654,11 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <f ca="1">IF(ISNUMBER(C396),A395+1024/44100,A395+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3824386281178569</v>
       </c>
       <c r="B396">
-        <f ca="1">IF(ISNUMBER(C396),C396,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>61</v>
       </c>
       <c r="C396">
@@ -11013,11 +11667,11 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <f ca="1">IF(ISNUMBER(C397),A396+1024/44100,A396+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3824396281178561</v>
       </c>
       <c r="B397">
-        <f ca="1">IF(ISNUMBER(C397),C397,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C397" t="s">
@@ -11026,11 +11680,11 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <f ca="1">IF(ISNUMBER(C398),A397+1024/44100,A397+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4056595827663827</v>
       </c>
       <c r="B398">
-        <f ca="1">IF(ISNUMBER(C398),C398,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>68</v>
       </c>
       <c r="C398">
@@ -11039,11 +11693,11 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <f ca="1">IF(ISNUMBER(C399),A398+1024/44100,A398+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4056605827663819</v>
       </c>
       <c r="B399">
-        <f ca="1">IF(ISNUMBER(C399),C399,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C399" t="s">
@@ -11052,11 +11706,11 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <f ca="1">IF(ISNUMBER(C400),A399+1024/44100,A399+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4288805374149085</v>
       </c>
       <c r="B400">
-        <f ca="1">IF(ISNUMBER(C400),C400,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>70</v>
       </c>
       <c r="C400">
@@ -11065,11 +11719,11 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <f ca="1">IF(ISNUMBER(C401),A400+1024/44100,A400+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4521004920634351</v>
       </c>
       <c r="B401">
-        <f ca="1">IF(ISNUMBER(C401),C401,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>65</v>
       </c>
       <c r="C401">
@@ -11078,11 +11732,11 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <f ca="1">IF(ISNUMBER(C402),A401+1024/44100,A401+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4753204467119616</v>
       </c>
       <c r="B402">
-        <f ca="1">IF(ISNUMBER(C402),C402,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>60</v>
       </c>
       <c r="C402">
@@ -11091,11 +11745,11 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <f ca="1">IF(ISNUMBER(C403),A402+1024/44100,A402+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.4985404013604882</v>
       </c>
       <c r="B403">
-        <f ca="1">IF(ISNUMBER(C403),C403,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>57</v>
       </c>
       <c r="C403">
@@ -11104,11 +11758,11 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <f ca="1">IF(ISNUMBER(C404),A403+1024/44100,A403+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.5217603560090147</v>
       </c>
       <c r="B404">
-        <f ca="1">IF(ISNUMBER(C404),C404,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
       <c r="C404">
@@ -11117,11 +11771,11 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <f ca="1">IF(ISNUMBER(C405),A404+1024/44100,A404+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.5449803106575413</v>
       </c>
       <c r="B405">
-        <f ca="1">IF(ISNUMBER(C405),C405,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>54</v>
       </c>
       <c r="C405">
@@ -11130,11 +11784,11 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <f ca="1">IF(ISNUMBER(C406),A405+1024/44100,A405+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.5682002653060678</v>
       </c>
       <c r="B406">
-        <f ca="1">IF(ISNUMBER(C406),C406,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>52</v>
       </c>
       <c r="C406">
@@ -11143,11 +11797,11 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <f ca="1">IF(ISNUMBER(C407),A406+1024/44100,A406+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.5914202199545944</v>
       </c>
       <c r="B407">
-        <f ca="1">IF(ISNUMBER(C407),C407,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>49</v>
       </c>
       <c r="C407">
@@ -11156,11 +11810,11 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <f ca="1">IF(ISNUMBER(C408),A407+1024/44100,A407+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.6146401746031209</v>
       </c>
       <c r="B408">
-        <f ca="1">IF(ISNUMBER(C408),C408,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>47</v>
       </c>
       <c r="C408">
@@ -11169,11 +11823,11 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <f ca="1">IF(ISNUMBER(C409),A408+1024/44100,A408+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.6378601292516475</v>
       </c>
       <c r="B409">
-        <f ca="1">IF(ISNUMBER(C409),C409,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>46</v>
       </c>
       <c r="C409">
@@ -11182,11 +11836,11 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <f ca="1">IF(ISNUMBER(C410),A409+1024/44100,A409+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.661080083900174</v>
       </c>
       <c r="B410">
-        <f ca="1">IF(ISNUMBER(C410),C410,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>49</v>
       </c>
       <c r="C410">
@@ -11195,11 +11849,11 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <f ca="1">IF(ISNUMBER(C411),A410+1024/44100,A410+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.6610810839001733</v>
       </c>
       <c r="B411">
-        <f ca="1">IF(ISNUMBER(C411),C411,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C411" t="s">
@@ -11208,11 +11862,11 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <f ca="1">IF(ISNUMBER(C412),A411+1024/44100,A411+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.6843010385486998</v>
       </c>
       <c r="B412">
-        <f ca="1">IF(ISNUMBER(C412),C412,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>47</v>
       </c>
       <c r="C412">
@@ -11221,11 +11875,11 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <f ca="1">IF(ISNUMBER(C413),A412+1024/44100,A412+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.7075209931972264</v>
       </c>
       <c r="B413">
-        <f ca="1">IF(ISNUMBER(C413),C413,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>40</v>
       </c>
       <c r="C413">
@@ -11234,11 +11888,11 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <f ca="1">IF(ISNUMBER(C414),A413+1024/44100,A413+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.7307409478457529</v>
       </c>
       <c r="B414">
-        <f ca="1">IF(ISNUMBER(C414),C414,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>38</v>
       </c>
       <c r="C414">
@@ -11247,11 +11901,11 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <f ca="1">IF(ISNUMBER(C415),A414+1024/44100,A414+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.7539609024942795</v>
       </c>
       <c r="B415">
-        <f ca="1">IF(ISNUMBER(C415),C415,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>40</v>
       </c>
       <c r="C415">
@@ -11260,11 +11914,11 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <f ca="1">IF(ISNUMBER(C416),A415+1024/44100,A415+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.777180857142806</v>
       </c>
       <c r="B416">
-        <f ca="1">IF(ISNUMBER(C416),C416,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>39</v>
       </c>
       <c r="C416">
@@ -11273,11 +11927,11 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <f ca="1">IF(ISNUMBER(C417),A416+1024/44100,A416+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8004008117913326</v>
       </c>
       <c r="B417">
-        <f ca="1">IF(ISNUMBER(C417),C417,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>40</v>
       </c>
       <c r="C417">
@@ -11286,11 +11940,11 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <f ca="1">IF(ISNUMBER(C418),A417+1024/44100,A417+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8236207664398592</v>
       </c>
       <c r="B418">
-        <f ca="1">IF(ISNUMBER(C418),C418,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>37</v>
       </c>
       <c r="C418">
@@ -11299,11 +11953,11 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <f ca="1">IF(ISNUMBER(C419),A418+1024/44100,A418+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8468407210883857</v>
       </c>
       <c r="B419">
-        <f ca="1">IF(ISNUMBER(C419),C419,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>40</v>
       </c>
       <c r="C419">
@@ -11312,11 +11966,11 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <f ca="1">IF(ISNUMBER(C420),A419+1024/44100,A419+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.846841721088385</v>
       </c>
       <c r="B420">
-        <f ca="1">IF(ISNUMBER(C420),C420,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C420" t="s">
@@ -11325,11 +11979,11 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <f ca="1">IF(ISNUMBER(C421),A420+1024/44100,A420+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8700616757369115</v>
       </c>
       <c r="B421">
-        <f ca="1">IF(ISNUMBER(C421),C421,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>39</v>
       </c>
       <c r="C421">
@@ -11338,11 +11992,11 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <f ca="1">IF(ISNUMBER(C422),A421+1024/44100,A421+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8932816303854381</v>
       </c>
       <c r="B422">
-        <f ca="1">IF(ISNUMBER(C422),C422,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>58</v>
       </c>
       <c r="C422">
@@ -11351,11 +12005,11 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <f ca="1">IF(ISNUMBER(C423),A422+1024/44100,A422+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.8932826303854373</v>
       </c>
       <c r="B423">
-        <f ca="1">IF(ISNUMBER(C423),C423,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C423" t="s">
@@ -11364,11 +12018,11 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <f ca="1">IF(ISNUMBER(C424),A423+1024/44100,A423+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.9165025850339639</v>
       </c>
       <c r="B424">
-        <f ca="1">IF(ISNUMBER(C424),C424,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>73</v>
       </c>
       <c r="C424">
@@ -11377,11 +12031,11 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <f ca="1">IF(ISNUMBER(C425),A424+1024/44100,A424+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.9165035850339631</v>
       </c>
       <c r="B425">
-        <f ca="1">IF(ISNUMBER(C425),C425,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C425" t="s">
@@ -11390,11 +12044,11 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <f ca="1">IF(ISNUMBER(C426),A425+1024/44100,A425+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.9397235396824897</v>
       </c>
       <c r="B426">
-        <f ca="1">IF(ISNUMBER(C426),C426,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>78</v>
       </c>
       <c r="C426">
@@ -11403,11 +12057,11 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <f ca="1">IF(ISNUMBER(C427),A426+1024/44100,A426+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.9397245396824889</v>
       </c>
       <c r="B427">
-        <f ca="1">IF(ISNUMBER(C427),C427,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="C427" t="s">
@@ -11416,11 +12070,11 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <f ca="1">IF(ISNUMBER(C428),A427+1024/44100,A427+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.9629444943310155</v>
       </c>
       <c r="B428">
-        <f ca="1">IF(ISNUMBER(C428),C428,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>76</v>
       </c>
       <c r="C428">
@@ -11429,11 +12083,11 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <f ca="1">IF(ISNUMBER(C429),A428+1024/44100,A428+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>8.986164448979542</v>
       </c>
       <c r="B429">
-        <f ca="1">IF(ISNUMBER(C429),C429,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>78</v>
       </c>
       <c r="C429">
@@ -11442,11 +12096,11 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <f ca="1">IF(ISNUMBER(C430),A429+1024/44100,A429+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.0093844036280686</v>
       </c>
       <c r="B430">
-        <f ca="1">IF(ISNUMBER(C430),C430,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>77</v>
       </c>
       <c r="C430">
@@ -11455,11 +12109,11 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <f ca="1">IF(ISNUMBER(C431),A430+1024/44100,A430+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.0326043582765951</v>
       </c>
       <c r="B431">
-        <f ca="1">IF(ISNUMBER(C431),C431,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>75</v>
       </c>
       <c r="C431">
@@ -11468,11 +12122,11 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <f ca="1">IF(ISNUMBER(C432),A431+1024/44100,A431+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.0558243129251217</v>
       </c>
       <c r="B432">
-        <f ca="1">IF(ISNUMBER(C432),C432,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>72</v>
       </c>
       <c r="C432">
@@ -11481,11 +12135,11 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <f ca="1">IF(ISNUMBER(C433),A432+1024/44100,A432+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.0790442675736482</v>
       </c>
       <c r="B433">
-        <f ca="1">IF(ISNUMBER(C433),C433,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>70</v>
       </c>
       <c r="C433">
@@ -11494,11 +12148,11 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <f ca="1">IF(ISNUMBER(C434),A433+1024/44100,A433+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.1022642222221748</v>
       </c>
       <c r="B434">
-        <f ca="1">IF(ISNUMBER(C434),C434,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>69</v>
       </c>
       <c r="C434">
@@ -11507,11 +12161,11 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <f ca="1">IF(ISNUMBER(C435),A434+1024/44100,A434+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.1254841768707013</v>
       </c>
       <c r="B435">
-        <f ca="1">IF(ISNUMBER(C435),C435,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>66</v>
       </c>
       <c r="C435">
@@ -11520,11 +12174,11 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <f ca="1">IF(ISNUMBER(C436),A435+1024/44100,A435+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.1487041315192279</v>
       </c>
       <c r="B436">
-        <f ca="1">IF(ISNUMBER(C436),C436,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>64</v>
       </c>
       <c r="C436">
@@ -11533,11 +12187,11 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <f ca="1">IF(ISNUMBER(C437),A436+1024/44100,A436+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.1719240861677545</v>
       </c>
       <c r="B437">
-        <f ca="1">IF(ISNUMBER(C437),C437,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>63</v>
       </c>
       <c r="C437">
@@ -11546,11 +12200,11 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <f ca="1">IF(ISNUMBER(C438),A437+1024/44100,A437+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.195144040816281</v>
       </c>
       <c r="B438">
-        <f ca="1">IF(ISNUMBER(C438),C438,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>61</v>
       </c>
       <c r="C438">
@@ -11559,11 +12213,11 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <f ca="1">IF(ISNUMBER(C439),A438+1024/44100,A438+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.2183639954648076</v>
       </c>
       <c r="B439">
-        <f ca="1">IF(ISNUMBER(C439),C439,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>60</v>
       </c>
       <c r="C439">
@@ -11572,11 +12226,11 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <f ca="1">IF(ISNUMBER(C440),A439+1024/44100,A439+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.2415839501133341</v>
       </c>
       <c r="B440">
-        <f ca="1">IF(ISNUMBER(C440),C440,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>58</v>
       </c>
       <c r="C440">
@@ -11585,11 +12239,11 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <f ca="1">IF(ISNUMBER(C441),A440+1024/44100,A440+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.2648039047618607</v>
       </c>
       <c r="B441">
-        <f ca="1">IF(ISNUMBER(C441),C441,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>57</v>
       </c>
       <c r="C441">
@@ -11598,11 +12252,11 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <f ca="1">IF(ISNUMBER(C442),A441+1024/44100,A441+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.2880238594103872</v>
       </c>
       <c r="B442">
-        <f ca="1">IF(ISNUMBER(C442),C442,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
       <c r="C442">
@@ -11611,11 +12265,11 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <f ca="1">IF(ISNUMBER(C443),A442+1024/44100,A442+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.3112438140589138</v>
       </c>
       <c r="B443">
-        <f ca="1">IF(ISNUMBER(C443),C443,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>56</v>
       </c>
       <c r="C443">
@@ -11624,11 +12278,11 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <f ca="1">IF(ISNUMBER(C444),A443+1024/44100,A443+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.3344637687074403</v>
       </c>
       <c r="B444">
-        <f ca="1">IF(ISNUMBER(C444),C444,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>54</v>
       </c>
       <c r="C444">
@@ -11637,11 +12291,11 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <f ca="1">IF(ISNUMBER(C445),A444+1024/44100,A444+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.3576837233559669</v>
       </c>
       <c r="B445">
-        <f ca="1">IF(ISNUMBER(C445),C445,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>52</v>
       </c>
       <c r="C445">
@@ -11650,11 +12304,11 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <f ca="1">IF(ISNUMBER(C446),A445+1024/44100,A445+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.3809036780044934</v>
       </c>
       <c r="B446">
-        <f ca="1">IF(ISNUMBER(C446),C446,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>50</v>
       </c>
       <c r="C446">
@@ -11663,11 +12317,11 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <f ca="1">IF(ISNUMBER(C447),A446+1024/44100,A446+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.40412363265302</v>
       </c>
       <c r="B447">
-        <f ca="1">IF(ISNUMBER(C447),C447,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>48</v>
       </c>
       <c r="C447">
@@ -11676,11 +12330,11 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <f ca="1">IF(ISNUMBER(C448),A447+1024/44100,A447+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.4273435873015465</v>
       </c>
       <c r="B448">
-        <f ca="1">IF(ISNUMBER(C448),C448,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>53</v>
       </c>
       <c r="C448">
@@ -11689,11 +12343,11 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <f ca="1">IF(ISNUMBER(C449),A448+1024/44100,A448+0.000001)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.4273445873015458</v>
       </c>
       <c r="B449">
-        <f ca="1">IF(ISNUMBER(C449),C449,0)</f>
+        <f t="shared" ref="B449:B512" ca="1" si="14">IF(ISNUMBER(C449),C449,0)</f>
         <v>0</v>
       </c>
       <c r="C449" t="s">
@@ -11702,11 +12356,11 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <f ca="1">IF(ISNUMBER(C450),A449+1024/44100,A449+0.000001)</f>
+        <f t="shared" ref="A450:A475" ca="1" si="15">IF(ISNUMBER(C450),A449+1024/44100,A449+0.000001)</f>
         <v>9.4505645419500723</v>
       </c>
       <c r="B450">
-        <f ca="1">IF(ISNUMBER(C450),C450,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>54</v>
       </c>
       <c r="C450">
@@ -11715,11 +12369,11 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <f ca="1">IF(ISNUMBER(C451),A450+1024/44100,A450+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.4737844965985989</v>
       </c>
       <c r="B451">
-        <f ca="1">IF(ISNUMBER(C451),C451,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>64</v>
       </c>
       <c r="C451">
@@ -11728,11 +12382,11 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <f ca="1">IF(ISNUMBER(C452),A451+1024/44100,A451+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.4737854965985981</v>
       </c>
       <c r="B452">
-        <f ca="1">IF(ISNUMBER(C452),C452,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="C452" t="s">
@@ -11741,11 +12395,11 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <f ca="1">IF(ISNUMBER(C453),A452+1024/44100,A452+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.4970054512471247</v>
       </c>
       <c r="B453">
-        <f ca="1">IF(ISNUMBER(C453),C453,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>65</v>
       </c>
       <c r="C453">
@@ -11754,11 +12408,11 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <f ca="1">IF(ISNUMBER(C454),A453+1024/44100,A453+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.5202254058956512</v>
       </c>
       <c r="B454">
-        <f ca="1">IF(ISNUMBER(C454),C454,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>64</v>
       </c>
       <c r="C454">
@@ -11767,11 +12421,11 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <f ca="1">IF(ISNUMBER(C455),A454+1024/44100,A454+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.5434453605441778</v>
       </c>
       <c r="B455">
-        <f ca="1">IF(ISNUMBER(C455),C455,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>62</v>
       </c>
       <c r="C455">
@@ -11780,11 +12434,11 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <f ca="1">IF(ISNUMBER(C456),A455+1024/44100,A455+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.5666653151927044</v>
       </c>
       <c r="B456">
-        <f ca="1">IF(ISNUMBER(C456),C456,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>60</v>
       </c>
       <c r="C456">
@@ -11793,11 +12447,11 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <f ca="1">IF(ISNUMBER(C457),A456+1024/44100,A456+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.5898852698412309</v>
       </c>
       <c r="B457">
-        <f ca="1">IF(ISNUMBER(C457),C457,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>58</v>
       </c>
       <c r="C457">
@@ -11806,11 +12460,11 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <f ca="1">IF(ISNUMBER(C458),A457+1024/44100,A457+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.6131052244897575</v>
       </c>
       <c r="B458">
-        <f ca="1">IF(ISNUMBER(C458),C458,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>57</v>
       </c>
       <c r="C458">
@@ -11819,11 +12473,11 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <f ca="1">IF(ISNUMBER(C459),A458+1024/44100,A458+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.636325179138284</v>
       </c>
       <c r="B459">
-        <f ca="1">IF(ISNUMBER(C459),C459,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>56</v>
       </c>
       <c r="C459">
@@ -11832,11 +12486,11 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <f ca="1">IF(ISNUMBER(C460),A459+1024/44100,A459+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.6595451337868106</v>
       </c>
       <c r="B460">
-        <f ca="1">IF(ISNUMBER(C460),C460,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>55</v>
       </c>
       <c r="C460">
@@ -11845,11 +12499,11 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <f ca="1">IF(ISNUMBER(C461),A460+1024/44100,A460+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.6827650884353371</v>
       </c>
       <c r="B461">
-        <f ca="1">IF(ISNUMBER(C461),C461,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>54</v>
       </c>
       <c r="C461">
@@ -11858,11 +12512,11 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <f ca="1">IF(ISNUMBER(C462),A461+1024/44100,A461+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.7059850430838637</v>
       </c>
       <c r="B462">
-        <f ca="1">IF(ISNUMBER(C462),C462,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>53</v>
       </c>
       <c r="C462">
@@ -11871,11 +12525,11 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <f ca="1">IF(ISNUMBER(C463),A462+1024/44100,A462+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.7292049977323902</v>
       </c>
       <c r="B463">
-        <f ca="1">IF(ISNUMBER(C463),C463,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>52</v>
       </c>
       <c r="C463">
@@ -11884,11 +12538,11 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <f ca="1">IF(ISNUMBER(C464),A463+1024/44100,A463+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.7524249523809168</v>
       </c>
       <c r="B464">
-        <f ca="1">IF(ISNUMBER(C464),C464,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>50</v>
       </c>
       <c r="C464">
@@ -11897,11 +12551,11 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <f ca="1">IF(ISNUMBER(C465),A464+1024/44100,A464+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.7756449070294433</v>
       </c>
       <c r="B465">
-        <f ca="1">IF(ISNUMBER(C465),C465,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>48</v>
       </c>
       <c r="C465">
@@ -11910,11 +12564,11 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <f ca="1">IF(ISNUMBER(C466),A465+1024/44100,A465+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.7988648616779699</v>
       </c>
       <c r="B466">
-        <f ca="1">IF(ISNUMBER(C466),C466,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>47</v>
       </c>
       <c r="C466">
@@ -11923,11 +12577,11 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <f ca="1">IF(ISNUMBER(C467),A466+1024/44100,A466+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.8220848163264964</v>
       </c>
       <c r="B467">
-        <f ca="1">IF(ISNUMBER(C467),C467,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>47</v>
       </c>
       <c r="C467">
@@ -11936,11 +12590,11 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <f ca="1">IF(ISNUMBER(C468),A467+1024/44100,A467+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.845304770975023</v>
       </c>
       <c r="B468">
-        <f ca="1">IF(ISNUMBER(C468),C468,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>46</v>
       </c>
       <c r="C468">
@@ -11949,11 +12603,11 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <f ca="1">IF(ISNUMBER(C469),A468+1024/44100,A468+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.8685247256235495</v>
       </c>
       <c r="B469">
-        <f ca="1">IF(ISNUMBER(C469),C469,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>44</v>
       </c>
       <c r="C469">
@@ -11962,11 +12616,11 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <f ca="1">IF(ISNUMBER(C470),A469+1024/44100,A469+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.8917446802720761</v>
       </c>
       <c r="B470">
-        <f ca="1">IF(ISNUMBER(C470),C470,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>43</v>
       </c>
       <c r="C470">
@@ -11975,11 +12629,11 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <f ca="1">IF(ISNUMBER(C471),A470+1024/44100,A470+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.9149646349206026</v>
       </c>
       <c r="B471">
-        <f ca="1">IF(ISNUMBER(C471),C471,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>43</v>
       </c>
       <c r="C471">
@@ -11988,11 +12642,11 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <f ca="1">IF(ISNUMBER(C472),A471+1024/44100,A471+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.9381845895691292</v>
       </c>
       <c r="B472">
-        <f ca="1">IF(ISNUMBER(C472),C472,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>42</v>
       </c>
       <c r="C472">
@@ -12001,11 +12655,11 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <f ca="1">IF(ISNUMBER(C473),A472+1024/44100,A472+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.9614045442176558</v>
       </c>
       <c r="B473">
-        <f ca="1">IF(ISNUMBER(C473),C473,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>41</v>
       </c>
       <c r="C473">
@@ -12014,11 +12668,11 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <f ca="1">IF(ISNUMBER(C474),A473+1024/44100,A473+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.9846244988661823</v>
       </c>
       <c r="B474">
-        <f ca="1">IF(ISNUMBER(C474),C474,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>46</v>
       </c>
       <c r="C474">
@@ -12027,11 +12681,11 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <f ca="1">IF(ISNUMBER(C475),A474+1024/44100,A474+0.000001)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>9.9846254988661816</v>
       </c>
       <c r="B475">
-        <f ca="1">IF(ISNUMBER(C475),C475,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="C475" t="s">
